--- a/mereni/9x2_M_F_1_34/9x2_M_F_1_34_results.xlsx
+++ b/mereni/9x2_M_F_1_34/9x2_M_F_1_34_results.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notebook\Desktop\Eyetracking\mereni\9x2_M_F_1_34\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -55,8 +60,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,17 +120,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,9 +176,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +210,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +245,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,18 +421,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M305"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="11" width="12.7109375" customWidth="1"/>
+    <col min="2" max="3" width="7.6640625" customWidth="1"/>
+    <col min="4" max="11" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -486,10 +503,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -503,16 +520,16 @@
         <v>1.526923287007399</v>
       </c>
       <c r="E3">
-        <v>8.359431351596498</v>
+        <v>8.3594313515964984</v>
       </c>
       <c r="F3">
-        <v>0.1272436072506166</v>
+        <v>0.12724360725061659</v>
       </c>
       <c r="G3">
-        <v>0.1114590846879533</v>
+        <v>0.11145908468795331</v>
       </c>
       <c r="H3">
-        <v>12.72436072506166</v>
+        <v>12.724360725061659</v>
       </c>
       <c r="I3">
         <v>11.14590846879533</v>
@@ -527,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -559,13 +576,13 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="M4">
         <v>10.87</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -579,19 +596,19 @@
         <v>0.800431313975559</v>
       </c>
       <c r="E5">
-        <v>9.654611049144364</v>
+        <v>9.6546110491443642</v>
       </c>
       <c r="F5">
-        <v>0.06670260949796325</v>
+        <v>6.670260949796325E-2</v>
       </c>
       <c r="G5">
-        <v>0.1287281473219248</v>
+        <v>0.12872814732192481</v>
       </c>
       <c r="H5">
         <v>6.670260949796325</v>
       </c>
       <c r="I5">
-        <v>12.87281473219248</v>
+        <v>12.872814732192481</v>
       </c>
       <c r="K5" t="s">
         <v>3</v>
@@ -603,7 +620,7 @@
         <v>14.78</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,22 +631,22 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.8552379137551824</v>
+        <v>0.85523791375518243</v>
       </c>
       <c r="E6">
-        <v>3.024748163139812</v>
+        <v>3.0247481631398121</v>
       </c>
       <c r="F6">
-        <v>0.0712698261462652</v>
+        <v>7.1269826146265203E-2</v>
       </c>
       <c r="G6">
-        <v>0.04032997550853079</v>
+        <v>4.0329975508530791E-2</v>
       </c>
       <c r="H6">
-        <v>7.12698261462652</v>
+        <v>7.1269826146265203</v>
       </c>
       <c r="I6">
-        <v>4.032997550853079</v>
+        <v>4.0329975508530786</v>
       </c>
       <c r="K6" t="s">
         <v>10</v>
@@ -641,7 +658,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -655,31 +672,31 @@
         <v>0.1051684567235274</v>
       </c>
       <c r="E7">
-        <v>2.047733726371796</v>
+        <v>2.0477337263717961</v>
       </c>
       <c r="F7">
-        <v>0.008764038060294022</v>
+        <v>8.7640380602940215E-3</v>
       </c>
       <c r="G7">
-        <v>0.02730311635162397</v>
+        <v>2.7303116351623968E-2</v>
       </c>
       <c r="H7">
-        <v>0.8764038060294022</v>
+        <v>0.87640380602940215</v>
       </c>
       <c r="I7">
-        <v>2.730311635162397</v>
+        <v>2.7303116351623968</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
       </c>
       <c r="L7">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M7">
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -690,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4212524347566085</v>
+        <v>0.42125243475660851</v>
       </c>
       <c r="E8">
         <v>11.15422889827194</v>
       </c>
       <c r="F8">
-        <v>0.03510436956305074</v>
+        <v>3.5104369563050741E-2</v>
       </c>
       <c r="G8">
         <v>0.1487230519769592</v>
       </c>
       <c r="H8">
-        <v>3.510436956305074</v>
+        <v>3.5104369563050741</v>
       </c>
       <c r="I8">
-        <v>14.87230519769592</v>
+        <v>14.872305197695921</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
@@ -717,7 +734,7 @@
         <v>90.61</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -728,22 +745,22 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.5733122060682092</v>
+        <v>0.57331220606820921</v>
       </c>
       <c r="E9">
-        <v>8.122682133384174</v>
+        <v>8.1226821333841741</v>
       </c>
       <c r="F9">
-        <v>0.0477760171723508</v>
+        <v>4.7776017172350797E-2</v>
       </c>
       <c r="G9">
-        <v>0.1083024284451223</v>
+        <v>0.10830242844512231</v>
       </c>
       <c r="H9">
-        <v>4.777601717235081</v>
+        <v>4.7776017172350809</v>
       </c>
       <c r="I9">
-        <v>10.83024284451223</v>
+        <v>10.830242844512229</v>
       </c>
       <c r="K9" t="s">
         <v>7</v>
@@ -755,7 +772,7 @@
         <v>19.71</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -766,25 +783,25 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.7649820430708338</v>
+        <v>0.76498204307083384</v>
       </c>
       <c r="E10">
         <v>10.61516230700281</v>
       </c>
       <c r="F10">
-        <v>0.06374850358923623</v>
+        <v>6.3748503589236227E-2</v>
       </c>
       <c r="G10">
-        <v>0.141535497426704</v>
+        <v>0.14153549742670399</v>
       </c>
       <c r="H10">
-        <v>6.374850358923623</v>
+        <v>6.3748503589236227</v>
       </c>
       <c r="I10">
         <v>14.1535497426704</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -795,25 +812,25 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.5733122060682092</v>
+        <v>0.57331220606820921</v>
       </c>
       <c r="E11">
-        <v>8.122682133384174</v>
+        <v>8.1226821333841741</v>
       </c>
       <c r="F11">
-        <v>0.0477760171723508</v>
+        <v>4.7776017172350797E-2</v>
       </c>
       <c r="G11">
-        <v>0.1083024284451223</v>
+        <v>0.10830242844512231</v>
       </c>
       <c r="H11">
-        <v>4.777601717235081</v>
+        <v>4.7776017172350809</v>
       </c>
       <c r="I11">
-        <v>10.83024284451223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>10.830242844512229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,30 +841,30 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9021623004610611</v>
+        <v>0.90216230046106105</v>
       </c>
       <c r="E12">
         <v>1.620113203627753</v>
       </c>
       <c r="F12">
-        <v>0.07518019170508849</v>
+        <v>7.5180191705088495E-2</v>
       </c>
       <c r="G12">
-        <v>0.02160150938170335</v>
+        <v>2.1601509381703351E-2</v>
       </c>
       <c r="H12">
-        <v>7.518019170508849</v>
+        <v>7.5180191705088486</v>
       </c>
       <c r="I12">
         <v>2.160150938170335</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -856,22 +873,22 @@
         <v>1.591065449373964</v>
       </c>
       <c r="E13">
-        <v>0.7356209705356633</v>
+        <v>0.73562097053566333</v>
       </c>
       <c r="F13">
         <v>0.1325887874478304</v>
       </c>
       <c r="G13">
-        <v>0.009808279607142256</v>
+        <v>9.8082796071422562E-3</v>
       </c>
       <c r="H13">
         <v>13.25887874478304</v>
       </c>
       <c r="I13">
-        <v>0.9808279607142256</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.98082796071422562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -885,22 +902,22 @@
         <v>1.281758049770765</v>
       </c>
       <c r="E14">
-        <v>2.324344201288142</v>
+        <v>2.3243442012881421</v>
       </c>
       <c r="F14">
         <v>0.1068131708142305</v>
       </c>
       <c r="G14">
-        <v>0.03099125601717523</v>
+        <v>3.0991256017175228E-2</v>
       </c>
       <c r="H14">
         <v>10.68131708142305</v>
       </c>
       <c r="I14">
-        <v>3.099125601717523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3.0991256017175228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -911,25 +928,25 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.8394031765147911</v>
+        <v>0.83940317651479113</v>
       </c>
       <c r="E15">
-        <v>1.079567740288567</v>
+        <v>1.0795677402885671</v>
       </c>
       <c r="F15">
-        <v>0.069950264709566</v>
+        <v>6.9950264709566001E-2</v>
       </c>
       <c r="G15">
-        <v>0.01439423653718086</v>
+        <v>1.439423653718086E-2</v>
       </c>
       <c r="H15">
-        <v>6.9950264709566</v>
+        <v>6.9950264709566001</v>
       </c>
       <c r="I15">
         <v>1.439423653718086</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -940,25 +957,25 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.7371507477818326</v>
+        <v>0.73715074778183265</v>
       </c>
       <c r="E16">
-        <v>0.9309694225513425</v>
+        <v>0.93096942255134252</v>
       </c>
       <c r="F16">
-        <v>0.06142922898181946</v>
+        <v>6.1429228981819461E-2</v>
       </c>
       <c r="G16">
-        <v>0.01241292563401786</v>
+        <v>1.2412925634017861E-2</v>
       </c>
       <c r="H16">
-        <v>6.142922898181946</v>
+        <v>6.1429228981819461</v>
       </c>
       <c r="I16">
         <v>1.241292563401786</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -969,25 +986,25 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1.050385896902933</v>
+        <v>1.0503858969029329</v>
       </c>
       <c r="E17">
-        <v>2.713553527665937</v>
+        <v>2.7135535276659368</v>
       </c>
       <c r="F17">
-        <v>0.08753215807524439</v>
+        <v>8.7532158075244393E-2</v>
       </c>
       <c r="G17">
-        <v>0.03618071370221254</v>
+        <v>3.6180713702212541E-2</v>
       </c>
       <c r="H17">
-        <v>8.753215807524439</v>
+        <v>8.7532158075244393</v>
       </c>
       <c r="I17">
-        <v>3.618071370221254</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>3.6180713702212541</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -998,25 +1015,25 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.8053541913263391</v>
+        <v>0.80535419132633912</v>
       </c>
       <c r="E18">
-        <v>6.204446964505706</v>
+        <v>6.2044469645057063</v>
       </c>
       <c r="F18">
-        <v>0.06711284927719496</v>
+        <v>6.7112849277194964E-2</v>
       </c>
       <c r="G18">
-        <v>0.08272595952674267</v>
+        <v>8.2725959526742665E-2</v>
       </c>
       <c r="H18">
-        <v>6.711284927719497</v>
+        <v>6.7112849277194968</v>
       </c>
       <c r="I18">
-        <v>8.272595952674266</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>8.2725959526742656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1027,25 +1044,25 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.4142802618173231</v>
+        <v>0.41428026181732308</v>
       </c>
       <c r="E19">
         <v>1.794257188495195</v>
       </c>
       <c r="F19">
-        <v>0.03452335515144367</v>
+        <v>3.4523355151443669E-2</v>
       </c>
       <c r="G19">
-        <v>0.02392342917993584</v>
+        <v>2.392342917993584E-2</v>
       </c>
       <c r="H19">
-        <v>3.452335515144367</v>
+        <v>3.4523355151443669</v>
       </c>
       <c r="I19">
         <v>2.392342917993584</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1059,22 +1076,22 @@
         <v>0.2116443778941601</v>
       </c>
       <c r="E20">
-        <v>7.169740685089209</v>
+        <v>7.1697406850892094</v>
       </c>
       <c r="F20">
-        <v>0.01763703149118001</v>
+        <v>1.7637031491180011E-2</v>
       </c>
       <c r="G20">
-        <v>0.09559654246785609</v>
+        <v>9.5596542467856094E-2</v>
       </c>
       <c r="H20">
-        <v>1.763703149118001</v>
+        <v>1.7637031491180011</v>
       </c>
       <c r="I20">
-        <v>9.559654246785609</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>9.5596542467856089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1085,25 +1102,25 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.5331922792556831</v>
+        <v>0.53319227925568313</v>
       </c>
       <c r="E21">
-        <v>1.13374960421929</v>
+        <v>1.1337496042192901</v>
       </c>
       <c r="F21">
-        <v>0.04443268993797356</v>
+        <v>4.4432689937973557E-2</v>
       </c>
       <c r="G21">
-        <v>0.01511666138959056</v>
+        <v>1.5116661389590559E-2</v>
       </c>
       <c r="H21">
-        <v>4.443268993797355</v>
+        <v>4.4432689937973553</v>
       </c>
       <c r="I21">
         <v>1.511666138959056</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1114,25 +1131,25 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>1.379827645263446</v>
+        <v>1.3798276452634459</v>
       </c>
       <c r="E22">
-        <v>4.684870321034055</v>
+        <v>4.6848703210340554</v>
       </c>
       <c r="F22">
         <v>0.1149856371052871</v>
       </c>
       <c r="G22">
-        <v>0.06246493761378735</v>
+        <v>6.2464937613787352E-2</v>
       </c>
       <c r="H22">
         <v>11.49856371052871</v>
       </c>
       <c r="I22">
-        <v>6.246493761378735</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>6.2464937613787352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1146,22 +1163,22 @@
         <v>0.7670597418914582</v>
       </c>
       <c r="E23">
-        <v>5.217829599326748</v>
+        <v>5.2178295993267483</v>
       </c>
       <c r="F23">
-        <v>0.06392164515762144</v>
+        <v>6.3921645157621443E-2</v>
       </c>
       <c r="G23">
-        <v>0.06957106132435664</v>
+        <v>6.9571061324356642E-2</v>
       </c>
       <c r="H23">
-        <v>6.392164515762144</v>
+        <v>6.3921645157621443</v>
       </c>
       <c r="I23">
-        <v>6.957106132435664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>6.9571061324356638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1172,25 +1189,25 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0.9027832112762724</v>
+        <v>0.90278321127627237</v>
       </c>
       <c r="E24">
-        <v>3.730964058086698</v>
+        <v>3.7309640580866978</v>
       </c>
       <c r="F24">
-        <v>0.07523193427302266</v>
+        <v>7.523193427302266E-2</v>
       </c>
       <c r="G24">
-        <v>0.049746187441156</v>
+        <v>4.9746187441155998E-2</v>
       </c>
       <c r="H24">
-        <v>7.523193427302266</v>
+        <v>7.5231934273022656</v>
       </c>
       <c r="I24">
-        <v>4.9746187441156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>4.9746187441155998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1201,25 +1218,25 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02145497201432445</v>
+        <v>2.1454972014324451E-2</v>
       </c>
       <c r="E25">
-        <v>7.196693955156356</v>
+        <v>7.1966939551563556</v>
       </c>
       <c r="F25">
-        <v>0.001787914334527019</v>
+        <v>1.787914334527019E-3</v>
       </c>
       <c r="G25">
-        <v>0.0959559194020847</v>
+        <v>9.5955919402084699E-2</v>
       </c>
       <c r="H25">
         <v>0.1787914334527019</v>
       </c>
       <c r="I25">
-        <v>9.59559194020847</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>9.5955919402084699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1230,25 +1247,25 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1.533812802034694</v>
+        <v>1.5338128020346939</v>
       </c>
       <c r="E26">
-        <v>0.1516189511259753</v>
+        <v>0.15161895112597529</v>
       </c>
       <c r="F26">
-        <v>0.1278177335028911</v>
+        <v>0.12781773350289111</v>
       </c>
       <c r="G26">
-        <v>0.002021586015012899</v>
+        <v>2.021586015012899E-3</v>
       </c>
       <c r="H26">
-        <v>12.78177335028911</v>
+        <v>12.781773350289111</v>
       </c>
       <c r="I26">
-        <v>0.2021586015012899</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.20215860150128989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1259,25 +1276,25 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0.7503726987335773</v>
+        <v>0.75037269873357726</v>
       </c>
       <c r="E27">
-        <v>2.522205160512719</v>
+        <v>2.5222051605127191</v>
       </c>
       <c r="F27">
-        <v>0.06253105822779809</v>
+        <v>6.2531058227798086E-2</v>
       </c>
       <c r="G27">
-        <v>0.03362940214016963</v>
+        <v>3.3629402140169629E-2</v>
       </c>
       <c r="H27">
-        <v>6.253105822779808</v>
+        <v>6.2531058227798084</v>
       </c>
       <c r="I27">
-        <v>3.362940214016963</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>3.3629402140169629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1288,25 +1305,25 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0.2851612071991605</v>
+        <v>0.28516120719916049</v>
       </c>
       <c r="E28">
-        <v>6.587256337590709</v>
+        <v>6.5872563375907092</v>
       </c>
       <c r="F28">
-        <v>0.02376343393326341</v>
+        <v>2.3763433933263411E-2</v>
       </c>
       <c r="G28">
-        <v>0.08783008450120944</v>
+        <v>8.7830084501209438E-2</v>
       </c>
       <c r="H28">
-        <v>2.376343393326341</v>
+        <v>2.3763433933263411</v>
       </c>
       <c r="I28">
-        <v>8.783008450120944</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>8.7830084501209438</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1326,16 +1343,16 @@
         <v>0.1556487157709173</v>
       </c>
       <c r="G29">
-        <v>0.04428953098774568</v>
+        <v>4.4289530987745677E-2</v>
       </c>
       <c r="H29">
-        <v>15.56487157709173</v>
+        <v>15.564871577091729</v>
       </c>
       <c r="I29">
-        <v>4.428953098774569</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>4.4289530987745689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1346,25 +1363,25 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>1.129052355173935</v>
+        <v>1.1290523551739351</v>
       </c>
       <c r="E30">
-        <v>6.587256337590709</v>
+        <v>6.5872563375907092</v>
       </c>
       <c r="F30">
-        <v>0.09408769626449459</v>
+        <v>9.4087696264494591E-2</v>
       </c>
       <c r="G30">
-        <v>0.08783008450120944</v>
+        <v>8.7830084501209438E-2</v>
       </c>
       <c r="H30">
-        <v>9.408769626449459</v>
+        <v>9.4087696264494589</v>
       </c>
       <c r="I30">
-        <v>8.783008450120944</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>8.7830084501209438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1381,19 +1398,19 @@
         <v>2.892881953273708</v>
       </c>
       <c r="F31">
-        <v>0.1308710357458955</v>
+        <v>0.13087103574589551</v>
       </c>
       <c r="G31">
-        <v>0.03857175937698276</v>
+        <v>3.8571759376982762E-2</v>
       </c>
       <c r="H31">
         <v>13.08710357458955</v>
       </c>
       <c r="I31">
-        <v>3.857175937698276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>3.8571759376982762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1404,25 +1421,25 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>0.8102436064213538</v>
+        <v>0.81024360642135385</v>
       </c>
       <c r="E32">
-        <v>10.32817234778572</v>
+        <v>10.328172347785721</v>
       </c>
       <c r="F32">
-        <v>0.06752030053511282</v>
+        <v>6.752030053511282E-2</v>
       </c>
       <c r="G32">
-        <v>0.137708964637143</v>
+        <v>0.13770896463714299</v>
       </c>
       <c r="H32">
         <v>6.752030053511282</v>
       </c>
       <c r="I32">
-        <v>13.7708964637143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>13.770896463714299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1433,25 +1450,25 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>1.020942672154353</v>
+        <v>1.0209426721543531</v>
       </c>
       <c r="E33">
-        <v>9.887100632638194</v>
+        <v>9.8871006326381945</v>
       </c>
       <c r="F33">
-        <v>0.08507855601286279</v>
+        <v>8.5078556012862794E-2</v>
       </c>
       <c r="G33">
-        <v>0.1318280084351759</v>
+        <v>0.13182800843517589</v>
       </c>
       <c r="H33">
-        <v>8.507855601286279</v>
+        <v>8.5078556012862787</v>
       </c>
       <c r="I33">
         <v>13.18280084351759</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1462,25 +1479,25 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>0.7742728553275455</v>
+        <v>0.77427285532754553</v>
       </c>
       <c r="E34">
         <v>6.324592458187297</v>
       </c>
       <c r="F34">
-        <v>0.06452273794396213</v>
+        <v>6.4522737943962127E-2</v>
       </c>
       <c r="G34">
-        <v>0.0843278994424973</v>
+        <v>8.4327899442497301E-2</v>
       </c>
       <c r="H34">
-        <v>6.452273794396213</v>
+        <v>6.4522737943962127</v>
       </c>
       <c r="I34">
-        <v>8.43278994424973</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>8.4327899442497305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1494,22 +1511,22 @@
         <v>1.843749033340347</v>
       </c>
       <c r="E35">
-        <v>4.82957075136806</v>
+        <v>4.8295707513680597</v>
       </c>
       <c r="F35">
         <v>0.1536457527783622</v>
       </c>
       <c r="G35">
-        <v>0.06439427668490749</v>
+        <v>6.4394276684907492E-2</v>
       </c>
       <c r="H35">
         <v>15.36457527783622</v>
       </c>
       <c r="I35">
-        <v>6.439427668490749</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>6.4394276684907492</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1520,25 +1537,25 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0.6634272529940817</v>
+        <v>0.66342725299408167</v>
       </c>
       <c r="E36">
-        <v>1.864415815712201</v>
+        <v>1.8644158157122011</v>
       </c>
       <c r="F36">
-        <v>0.05528560441617347</v>
+        <v>5.5285604416173473E-2</v>
       </c>
       <c r="G36">
-        <v>0.02485887754282935</v>
+        <v>2.4858877542829349E-2</v>
       </c>
       <c r="H36">
-        <v>5.528560441617348</v>
+        <v>5.5285604416173477</v>
       </c>
       <c r="I36">
-        <v>2.485887754282935</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>2.4858877542829352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1549,25 +1566,25 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>0.03350993617254527</v>
+        <v>3.3509936172545267E-2</v>
       </c>
       <c r="E37">
-        <v>2.800647322502236</v>
+        <v>2.8006473225022361</v>
       </c>
       <c r="F37">
-        <v>0.002792494681045476</v>
+        <v>2.7924946810454761E-3</v>
       </c>
       <c r="G37">
-        <v>0.03734196430002978</v>
+        <v>3.7341964300029777E-2</v>
       </c>
       <c r="H37">
-        <v>0.2792494681045476</v>
+        <v>0.27924946810454759</v>
       </c>
       <c r="I37">
         <v>3.734196430002978</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1581,22 +1598,22 @@
         <v>1.486263668037517</v>
       </c>
       <c r="E38">
-        <v>5.685311134671593</v>
+        <v>5.6853111346715934</v>
       </c>
       <c r="F38">
-        <v>0.1238553056697931</v>
+        <v>0.12385530566979309</v>
       </c>
       <c r="G38">
-        <v>0.075804148462288</v>
+        <v>7.5804148462288001E-2</v>
       </c>
       <c r="H38">
-        <v>12.38553056697931</v>
+        <v>12.385530566979311</v>
       </c>
       <c r="I38">
-        <v>7.5804148462288</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>7.5804148462288001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1607,25 +1624,25 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>1.319338400326422</v>
+        <v>1.3193384003264219</v>
       </c>
       <c r="E39">
-        <v>2.402785546132591</v>
+        <v>2.4027855461325909</v>
       </c>
       <c r="F39">
-        <v>0.1099448666938685</v>
+        <v>0.10994486669386851</v>
       </c>
       <c r="G39">
-        <v>0.03203714061510121</v>
+        <v>3.2037140615101212E-2</v>
       </c>
       <c r="H39">
         <v>10.99448666938685</v>
       </c>
       <c r="I39">
-        <v>3.203714061510121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>3.2037140615101212</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1639,22 +1656,22 @@
         <v>1.707900475685322</v>
       </c>
       <c r="E40">
-        <v>3.252180690877509</v>
+        <v>3.2521806908775091</v>
       </c>
       <c r="F40">
-        <v>0.1423250396404435</v>
+        <v>0.14232503964044349</v>
       </c>
       <c r="G40">
-        <v>0.0433624092117002</v>
+        <v>4.3362409211700197E-2</v>
       </c>
       <c r="H40">
         <v>14.23250396404435</v>
       </c>
       <c r="I40">
-        <v>4.33624092117002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>4.3362409211700204</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1665,25 +1682,25 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>0.2426406871192857</v>
+        <v>0.24264068711928569</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41">
-        <v>0.02022005725994047</v>
+        <v>2.0220057259940472E-2</v>
       </c>
       <c r="G41">
-        <v>0.06666666666666665</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H41">
-        <v>2.022005725994047</v>
+        <v>2.0220057259940472</v>
       </c>
       <c r="I41">
-        <v>6.666666666666665</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>6.6666666666666652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1694,25 +1711,25 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>0.9497474683058327</v>
+        <v>0.94974746830583268</v>
       </c>
       <c r="E42">
         <v>5</v>
       </c>
       <c r="F42">
-        <v>0.07914562235881939</v>
+        <v>7.914562235881939E-2</v>
       </c>
       <c r="G42">
-        <v>0.06666666666666665</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H42">
         <v>7.914562235881939</v>
       </c>
       <c r="I42">
-        <v>6.666666666666665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>6.6666666666666652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1723,25 +1740,25 @@
         <v>1</v>
       </c>
       <c r="D43">
-        <v>2.103938271253308</v>
+        <v>2.1039382712533081</v>
       </c>
       <c r="E43">
-        <v>5.386127341022913</v>
+        <v>5.3861273410229131</v>
       </c>
       <c r="F43">
-        <v>0.175328189271109</v>
+        <v>0.17532818927110899</v>
       </c>
       <c r="G43">
-        <v>0.07181503121363886</v>
+        <v>7.1815031213638858E-2</v>
       </c>
       <c r="H43">
-        <v>17.5328189271109</v>
+        <v>17.532818927110899</v>
       </c>
       <c r="I43">
-        <v>7.181503121363885</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>7.1815031213638854</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1755,22 +1772,22 @@
         <v>1.419196622271208</v>
       </c>
       <c r="E44">
-        <v>9.486313307448199</v>
+        <v>9.4863133074481993</v>
       </c>
       <c r="F44">
         <v>0.1182663851892674</v>
       </c>
       <c r="G44">
-        <v>0.1264841774326426</v>
+        <v>0.12648417743264259</v>
       </c>
       <c r="H44">
-        <v>11.82663851892674</v>
+        <v>11.826638518926741</v>
       </c>
       <c r="I44">
-        <v>12.64841774326426</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>12.648417743264259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1781,25 +1798,25 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.6122316191398749</v>
+        <v>0.61223161913987489</v>
       </c>
       <c r="E45">
-        <v>2.402785546132591</v>
+        <v>2.4027855461325909</v>
       </c>
       <c r="F45">
-        <v>0.05101930159498957</v>
+        <v>5.1019301594989568E-2</v>
       </c>
       <c r="G45">
-        <v>0.03203714061510121</v>
+        <v>3.2037140615101212E-2</v>
       </c>
       <c r="H45">
-        <v>5.101930159498957</v>
+        <v>5.1019301594989566</v>
       </c>
       <c r="I45">
-        <v>3.203714061510121</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>3.2037140615101212</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1813,22 +1830,22 @@
         <v>2.298129396112492</v>
       </c>
       <c r="E46">
-        <v>14.77983398449724</v>
+        <v>14.779833984497239</v>
       </c>
       <c r="F46">
-        <v>0.1915107830093744</v>
+        <v>0.19151078300937441</v>
       </c>
       <c r="G46">
-        <v>0.19706445312663</v>
+        <v>0.19706445312663001</v>
       </c>
       <c r="H46">
-        <v>19.15107830093744</v>
+        <v>19.151078300937439</v>
       </c>
       <c r="I46">
         <v>19.706445312663</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1857,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1886,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1915,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1926,7 +1943,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>2.845840206146233</v>
+        <v>2.8458402061462329</v>
       </c>
       <c r="E50">
         <v>6.416827088958776</v>
@@ -1935,16 +1952,16 @@
         <v>0.2371533505121862</v>
       </c>
       <c r="G50">
-        <v>0.08555769451945039</v>
+        <v>8.5557694519450389E-2</v>
       </c>
       <c r="H50">
         <v>23.71533505121862</v>
       </c>
       <c r="I50">
-        <v>8.555769451945039</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>8.5557694519450393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1973,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1984,25 +2001,25 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>2.953058543528091</v>
+        <v>2.9530585435280909</v>
       </c>
       <c r="E52">
-        <v>10.71478280741925</v>
+        <v>10.714782807419249</v>
       </c>
       <c r="F52">
-        <v>0.2460882119606743</v>
+        <v>0.24608821196067429</v>
       </c>
       <c r="G52">
-        <v>0.1428637707655901</v>
+        <v>0.14286377076559009</v>
       </c>
       <c r="H52">
-        <v>24.60882119606743</v>
+        <v>24.608821196067431</v>
       </c>
       <c r="I52">
         <v>14.28637707655901</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2019,19 +2036,19 @@
         <v>10.8797400424064</v>
       </c>
       <c r="F53">
-        <v>0.1238553056697931</v>
+        <v>0.12385530566979309</v>
       </c>
       <c r="G53">
-        <v>0.1450632005654187</v>
+        <v>0.14506320056541869</v>
       </c>
       <c r="H53">
-        <v>12.38553056697931</v>
+        <v>12.385530566979311</v>
       </c>
       <c r="I53">
         <v>14.50632005654187</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2042,25 +2059,25 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>0.5144405737214939</v>
+        <v>0.51444057372149388</v>
       </c>
       <c r="E54">
-        <v>6.513012479973476</v>
+        <v>6.5130124799734759</v>
       </c>
       <c r="F54">
-        <v>0.04287004781012449</v>
+        <v>4.287004781012449E-2</v>
       </c>
       <c r="G54">
-        <v>0.08684016639964637</v>
+        <v>8.6840166399646368E-2</v>
       </c>
       <c r="H54">
         <v>4.287004781012449</v>
       </c>
       <c r="I54">
-        <v>8.684016639964637</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>8.6840166399646375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2071,25 +2088,25 @@
         <v>3</v>
       </c>
       <c r="D55">
-        <v>0.4644660940672622</v>
+        <v>0.46446609406726219</v>
       </c>
       <c r="E55">
         <v>5</v>
       </c>
       <c r="F55">
-        <v>0.0387055078389385</v>
+        <v>3.8705507838938502E-2</v>
       </c>
       <c r="G55">
-        <v>0.06666666666666665</v>
+        <v>6.6666666666666652E-2</v>
       </c>
       <c r="H55">
         <v>3.87055078389385</v>
       </c>
       <c r="I55">
-        <v>6.666666666666665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>6.6666666666666652</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2100,25 +2117,25 @@
         <v>3</v>
       </c>
       <c r="D56">
-        <v>0.05353888650391481</v>
+        <v>5.3538886503914813E-2</v>
       </c>
       <c r="E56">
         <v>14.217474411461</v>
       </c>
       <c r="F56">
-        <v>0.004461573875326197</v>
+        <v>4.4615738753261969E-3</v>
       </c>
       <c r="G56">
-        <v>0.1895663254861467</v>
+        <v>0.18956632548614669</v>
       </c>
       <c r="H56">
-        <v>0.4461573875326197</v>
+        <v>0.44615738753261969</v>
       </c>
       <c r="I56">
-        <v>18.95663254861467</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>18.956632548614671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2129,25 +2146,25 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>0.7504760756705418</v>
+        <v>0.75047607567054175</v>
       </c>
       <c r="E57">
-        <v>5.153705918251038</v>
+        <v>5.1537059182510383</v>
       </c>
       <c r="F57">
-        <v>0.06253967297254515</v>
+        <v>6.2539672972545146E-2</v>
       </c>
       <c r="G57">
-        <v>0.06871607891001384</v>
+        <v>6.8716078910013842E-2</v>
       </c>
       <c r="H57">
-        <v>6.253967297254515</v>
+        <v>6.2539672972545146</v>
       </c>
       <c r="I57">
-        <v>6.871607891001384</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>6.8716078910013838</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2158,25 +2175,25 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>0.04336929448399385</v>
+        <v>4.3369294483993848E-2</v>
       </c>
       <c r="E58">
-        <v>5.153705918251038</v>
+        <v>5.1537059182510383</v>
       </c>
       <c r="F58">
-        <v>0.003614107873666172</v>
+        <v>3.614107873666172E-3</v>
       </c>
       <c r="G58">
-        <v>0.06871607891001384</v>
+        <v>6.8716078910013842E-2</v>
       </c>
       <c r="H58">
-        <v>0.3614107873666172</v>
+        <v>0.36141078736661719</v>
       </c>
       <c r="I58">
-        <v>6.871607891001384</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>6.8716078910013838</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2187,25 +2204,25 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.4753935892861327</v>
+        <v>0.47539358928613268</v>
       </c>
       <c r="E59">
-        <v>2.771885072887949</v>
+        <v>2.7718850728879492</v>
       </c>
       <c r="F59">
-        <v>0.03961613244051104</v>
+        <v>3.9616132440511043E-2</v>
       </c>
       <c r="G59">
-        <v>0.03695846763850599</v>
+        <v>3.6958467638505993E-2</v>
       </c>
       <c r="H59">
         <v>3.961613244051104</v>
       </c>
       <c r="I59">
-        <v>3.695846763850599</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>3.6958467638505992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2216,25 +2233,25 @@
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0.7742728553275455</v>
+        <v>0.77427285532754553</v>
       </c>
       <c r="E60">
         <v>6.324592458187297</v>
       </c>
       <c r="F60">
-        <v>0.06452273794396213</v>
+        <v>6.4522737943962127E-2</v>
       </c>
       <c r="G60">
-        <v>0.0843278994424973</v>
+        <v>8.4327899442497301E-2</v>
       </c>
       <c r="H60">
-        <v>6.452273794396213</v>
+        <v>6.4522737943962127</v>
       </c>
       <c r="I60">
-        <v>8.43278994424973</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>8.4327899442497305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2248,22 +2265,22 @@
         <v>1.508899616141915</v>
       </c>
       <c r="E61">
-        <v>9.911003687236949</v>
+        <v>9.9110036872369491</v>
       </c>
       <c r="F61">
         <v>0.125741634678493</v>
       </c>
       <c r="G61">
-        <v>0.132146715829826</v>
+        <v>0.13214671582982601</v>
       </c>
       <c r="H61">
-        <v>12.5741634678493</v>
+        <v>12.574163467849299</v>
       </c>
       <c r="I61">
         <v>13.2146715829826</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2277,22 +2294,22 @@
         <v>1.363335050615706</v>
       </c>
       <c r="E62">
-        <v>2.630218073870289</v>
+        <v>2.6302180738702892</v>
       </c>
       <c r="F62">
-        <v>0.1136112542179755</v>
+        <v>0.11361125421797549</v>
       </c>
       <c r="G62">
-        <v>0.03506957431827051</v>
+        <v>3.5069574318270513E-2</v>
       </c>
       <c r="H62">
-        <v>11.36112542179755</v>
+        <v>11.361125421797549</v>
       </c>
       <c r="I62">
-        <v>3.506957431827051</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>3.5069574318270509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2303,25 +2320,25 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0.5578378308200582</v>
+        <v>0.55783783082005822</v>
       </c>
       <c r="E63">
         <v>1.302966893341591</v>
       </c>
       <c r="F63">
-        <v>0.04648648590167154</v>
+        <v>4.6486485901671537E-2</v>
       </c>
       <c r="G63">
-        <v>0.01737289191122121</v>
+        <v>1.7372891911221211E-2</v>
       </c>
       <c r="H63">
-        <v>4.648648590167154</v>
+        <v>4.6486485901671539</v>
       </c>
       <c r="I63">
-        <v>1.737289191122121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>1.7372891911221211</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2332,25 +2349,25 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0.3908656273920199</v>
+        <v>0.39086562739201991</v>
       </c>
       <c r="E64">
-        <v>9.911003687236949</v>
+        <v>9.9110036872369491</v>
       </c>
       <c r="F64">
-        <v>0.0325721356160017</v>
+        <v>3.2572135616001703E-2</v>
       </c>
       <c r="G64">
-        <v>0.132146715829826</v>
+        <v>0.13214671582982601</v>
       </c>
       <c r="H64">
-        <v>3.25721356160017</v>
+        <v>3.2572135616001701</v>
       </c>
       <c r="I64">
         <v>13.2146715829826</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2364,13 +2381,13 @@
         <v>1.447597061001582</v>
       </c>
       <c r="E65">
-        <v>6.192726248321193</v>
+        <v>6.1927262483211933</v>
       </c>
       <c r="F65">
         <v>0.1206330884167985</v>
       </c>
       <c r="G65">
-        <v>0.08256968331094927</v>
+        <v>8.2569683310949271E-2</v>
       </c>
       <c r="H65">
         <v>12.06330884167985</v>
@@ -2379,7 +2396,7 @@
         <v>8.256968331094928</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2390,25 +2407,25 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>1.166844568767048</v>
+        <v>1.1668445687670479</v>
       </c>
       <c r="E66">
-        <v>9.757352210545662</v>
+        <v>9.7573522105456618</v>
       </c>
       <c r="F66">
-        <v>0.09723704739725397</v>
+        <v>9.7237047397253973E-2</v>
       </c>
       <c r="G66">
-        <v>0.1300980294739421</v>
+        <v>0.13009802947394211</v>
       </c>
       <c r="H66">
-        <v>9.723704739725397</v>
+        <v>9.7237047397253971</v>
       </c>
       <c r="I66">
         <v>13.00980294739421</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2419,25 +2436,25 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>0.4839669801631636</v>
+        <v>0.48396698016316358</v>
       </c>
       <c r="E67">
-        <v>8.093545818086511</v>
+        <v>8.0935458180865112</v>
       </c>
       <c r="F67">
-        <v>0.0403305816802636</v>
+        <v>4.03305816802636E-2</v>
       </c>
       <c r="G67">
         <v>0.1079139442411534</v>
       </c>
       <c r="H67">
-        <v>4.03305816802636</v>
+        <v>4.0330581680263604</v>
       </c>
       <c r="I67">
-        <v>10.79139442411534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>10.791394424115341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2448,25 +2465,25 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>1.379827645263446</v>
+        <v>1.3798276452634459</v>
       </c>
       <c r="E68">
-        <v>4.684870321034055</v>
+        <v>4.6848703210340554</v>
       </c>
       <c r="F68">
         <v>0.1149856371052871</v>
       </c>
       <c r="G68">
-        <v>0.06246493761378735</v>
+        <v>6.2464937613787352E-2</v>
       </c>
       <c r="H68">
         <v>11.49856371052871</v>
       </c>
       <c r="I68">
-        <v>6.246493761378735</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>6.2464937613787352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2477,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="D69">
-        <v>1.379827645263446</v>
+        <v>1.3798276452634459</v>
       </c>
       <c r="E69">
         <v>1.655321424875851</v>
@@ -2486,16 +2503,16 @@
         <v>0.1149856371052871</v>
       </c>
       <c r="G69">
-        <v>0.02207095233167811</v>
+        <v>2.207095233167811E-2</v>
       </c>
       <c r="H69">
         <v>11.49856371052871</v>
       </c>
       <c r="I69">
-        <v>2.207095233167811</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>2.2070952331678111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2509,22 +2526,22 @@
         <v>0.6762649260265432</v>
       </c>
       <c r="E70">
-        <v>4.111988901946503</v>
+        <v>4.1119889019465026</v>
       </c>
       <c r="F70">
-        <v>0.05635541050221193</v>
+        <v>5.6355410502211933E-2</v>
       </c>
       <c r="G70">
-        <v>0.05482651869262001</v>
+        <v>5.4826518692620008E-2</v>
       </c>
       <c r="H70">
-        <v>5.635541050221193</v>
+        <v>5.6355410502211933</v>
       </c>
       <c r="I70">
-        <v>5.482651869262001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>5.4826518692620008</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2535,25 +2552,25 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>0.4357632593057499</v>
+        <v>0.43576325930574988</v>
       </c>
       <c r="E71">
-        <v>10.73224885954012</v>
+        <v>10.732248859540119</v>
       </c>
       <c r="F71">
-        <v>0.03631360494214586</v>
+        <v>3.6313604942145861E-2</v>
       </c>
       <c r="G71">
-        <v>0.1430966514605349</v>
+        <v>0.14309665146053491</v>
       </c>
       <c r="H71">
-        <v>3.631360494214586</v>
+        <v>3.6313604942145861</v>
       </c>
       <c r="I71">
-        <v>14.30966514605348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>14.309665146053479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2564,25 +2581,25 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>0.5977573803053868</v>
+        <v>0.59775738030538683</v>
       </c>
       <c r="E72">
-        <v>5.806585188136083</v>
+        <v>5.8065851881360828</v>
       </c>
       <c r="F72">
-        <v>0.04981311502544894</v>
+        <v>4.981311502544894E-2</v>
       </c>
       <c r="G72">
-        <v>0.07742113584181443</v>
+        <v>7.7421135841814426E-2</v>
       </c>
       <c r="H72">
-        <v>4.981311502544894</v>
+        <v>4.9813115025448944</v>
       </c>
       <c r="I72">
-        <v>7.742113584181443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>7.7421135841814426</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2593,25 +2610,25 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>0.3097592231098023</v>
+        <v>0.30975922310980231</v>
       </c>
       <c r="E73">
         <v>5.701903961878628</v>
       </c>
       <c r="F73">
-        <v>0.02581326859248356</v>
+        <v>2.5813268592483559E-2</v>
       </c>
       <c r="G73">
-        <v>0.07602538615838161</v>
+        <v>7.6025386158381614E-2</v>
       </c>
       <c r="H73">
-        <v>2.581326859248356</v>
+        <v>2.5813268592483558</v>
       </c>
       <c r="I73">
-        <v>7.602538615838162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>7.6025386158381618</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2622,25 +2639,25 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.4357632593057499</v>
+        <v>0.43576325930574988</v>
       </c>
       <c r="E74">
-        <v>10.73224885954012</v>
+        <v>10.732248859540119</v>
       </c>
       <c r="F74">
-        <v>0.03631360494214586</v>
+        <v>3.6313604942145861E-2</v>
       </c>
       <c r="G74">
-        <v>0.1430966514605349</v>
+        <v>0.14309665146053491</v>
       </c>
       <c r="H74">
-        <v>3.631360494214586</v>
+        <v>3.6313604942145861</v>
       </c>
       <c r="I74">
-        <v>14.30966514605348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>14.309665146053479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2651,25 +2668,25 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>0.6593119673939185</v>
+        <v>0.65931196739391851</v>
       </c>
       <c r="E75">
-        <v>1.696636248344589</v>
+        <v>1.6966362483445889</v>
       </c>
       <c r="F75">
-        <v>0.05494266394949321</v>
+        <v>5.4942663949493209E-2</v>
       </c>
       <c r="G75">
-        <v>0.02262181664459451</v>
+        <v>2.2621816644594509E-2</v>
       </c>
       <c r="H75">
-        <v>5.494266394949321</v>
+        <v>5.4942663949493209</v>
       </c>
       <c r="I75">
         <v>2.262181664459451</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2680,25 +2697,25 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>0.8486099643535105</v>
+        <v>0.84860996435351055</v>
       </c>
       <c r="E76">
-        <v>3.219299505411186</v>
+        <v>3.2192995054111861</v>
       </c>
       <c r="F76">
-        <v>0.07071749702945918</v>
+        <v>7.0717497029459175E-2</v>
       </c>
       <c r="G76">
-        <v>0.04292399340548247</v>
+        <v>4.2923993405482468E-2</v>
       </c>
       <c r="H76">
-        <v>7.071749702945917</v>
+        <v>7.0717497029459171</v>
       </c>
       <c r="I76">
         <v>4.292399340548247</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2709,25 +2726,25 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>0.4518736325241672</v>
+        <v>0.45187363252416718</v>
       </c>
       <c r="E77">
-        <v>5.718083365097243</v>
+        <v>5.7180833650972431</v>
       </c>
       <c r="F77">
-        <v>0.03765613604368057</v>
+        <v>3.7656136043680573E-2</v>
       </c>
       <c r="G77">
-        <v>0.07624111153462987</v>
+        <v>7.6241111534629868E-2</v>
       </c>
       <c r="H77">
         <v>3.765613604368057</v>
       </c>
       <c r="I77">
-        <v>7.624111153462987</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>7.6241111534629873</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2738,25 +2755,25 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>0.947468600740704</v>
+        <v>0.94746860074070405</v>
       </c>
       <c r="E78">
-        <v>5.215540362470165</v>
+        <v>5.2155403624701648</v>
       </c>
       <c r="F78">
-        <v>0.07895571672839197</v>
+        <v>7.8955716728391967E-2</v>
       </c>
       <c r="G78">
-        <v>0.06954053816626882</v>
+        <v>6.9540538166268817E-2</v>
       </c>
       <c r="H78">
-        <v>7.895571672839196</v>
+        <v>7.8955716728391963</v>
       </c>
       <c r="I78">
-        <v>6.954053816626882</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>6.9540538166268817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2770,10 +2787,10 @@
         <v>0.156149278966943</v>
       </c>
       <c r="E79">
-        <v>9.349705735389534</v>
+        <v>9.3497057353895343</v>
       </c>
       <c r="F79">
-        <v>0.01301243991391188</v>
+        <v>1.3012439913911881E-2</v>
       </c>
       <c r="G79">
         <v>0.124662743138527</v>
@@ -2782,10 +2799,10 @@
         <v>1.301243991391188</v>
       </c>
       <c r="I79">
-        <v>12.4662743138527</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>12.466274313852701</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2805,16 +2822,16 @@
         <v>0.11540768714084</v>
       </c>
       <c r="G80">
-        <v>0.01517096209718416</v>
+        <v>1.517096209718416E-2</v>
       </c>
       <c r="H80">
-        <v>11.540768714084</v>
+        <v>11.540768714084001</v>
       </c>
       <c r="I80">
         <v>1.517096209718416</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2828,22 +2845,22 @@
         <v>1.58989738230505</v>
       </c>
       <c r="E81">
-        <v>1.243998688074271</v>
+        <v>1.2439986880742711</v>
       </c>
       <c r="F81">
         <v>0.1324914485254208</v>
       </c>
       <c r="G81">
-        <v>0.01658664917432362</v>
+        <v>1.658664917432362E-2</v>
       </c>
       <c r="H81">
-        <v>13.24914485254208</v>
+        <v>13.249144852542081</v>
       </c>
       <c r="I81">
         <v>1.658664917432362</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2857,22 +2874,22 @@
         <v>0.6762649260265432</v>
       </c>
       <c r="E82">
-        <v>4.111988901946503</v>
+        <v>4.1119889019465026</v>
       </c>
       <c r="F82">
-        <v>0.05635541050221193</v>
+        <v>5.6355410502211933E-2</v>
       </c>
       <c r="G82">
-        <v>0.05482651869262001</v>
+        <v>5.4826518692620008E-2</v>
       </c>
       <c r="H82">
-        <v>5.635541050221193</v>
+        <v>5.6355410502211933</v>
       </c>
       <c r="I82">
-        <v>5.482651869262001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>5.4826518692620008</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2883,25 +2900,25 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>0.8879561369107289</v>
+        <v>0.88795613691072894</v>
       </c>
       <c r="E83">
-        <v>5.608675454031356</v>
+        <v>5.6086754540313564</v>
       </c>
       <c r="F83">
-        <v>0.07399634474256067</v>
+        <v>7.3996344742560671E-2</v>
       </c>
       <c r="G83">
-        <v>0.07478233938708467</v>
+        <v>7.4782339387084673E-2</v>
       </c>
       <c r="H83">
-        <v>7.399634474256067</v>
+        <v>7.3996344742560671</v>
       </c>
       <c r="I83">
-        <v>7.478233938708467</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>7.4782339387084669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2912,25 +2929,25 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>0.4071882430597356</v>
+        <v>0.40718824305973561</v>
       </c>
       <c r="E84">
         <v>3.896595293442203</v>
       </c>
       <c r="F84">
-        <v>0.03393235358831126</v>
+        <v>3.3932353588311259E-2</v>
       </c>
       <c r="G84">
-        <v>0.05195460391256268</v>
+        <v>5.195460391256268E-2</v>
       </c>
       <c r="H84">
-        <v>3.393235358831126</v>
+        <v>3.3932353588311259</v>
       </c>
       <c r="I84">
         <v>5.195460391256268</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2944,22 +2961,22 @@
         <v>0.6762649260265432</v>
       </c>
       <c r="E85">
-        <v>4.111988901946503</v>
+        <v>4.1119889019465026</v>
       </c>
       <c r="F85">
-        <v>0.05635541050221193</v>
+        <v>5.6355410502211933E-2</v>
       </c>
       <c r="G85">
-        <v>0.05482651869262001</v>
+        <v>5.4826518692620008E-2</v>
       </c>
       <c r="H85">
-        <v>5.635541050221193</v>
+        <v>5.6355410502211933</v>
       </c>
       <c r="I85">
-        <v>5.482651869262001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>5.4826518692620008</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2973,22 +2990,22 @@
         <v>1.752962639233679</v>
       </c>
       <c r="E86">
-        <v>1.514774448079102</v>
+        <v>1.5147744480791021</v>
       </c>
       <c r="F86">
         <v>0.1460802199361399</v>
       </c>
       <c r="G86">
-        <v>0.02019699264105468</v>
+        <v>2.0196992641054679E-2</v>
       </c>
       <c r="H86">
         <v>14.60802199361399</v>
       </c>
       <c r="I86">
-        <v>2.019699264105468</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>2.0196992641054679</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2999,25 +3016,25 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>0.7503726987335773</v>
+        <v>0.75037269873357726</v>
       </c>
       <c r="E87">
-        <v>2.522205160512719</v>
+        <v>2.5222051605127191</v>
       </c>
       <c r="F87">
-        <v>0.06253105822779809</v>
+        <v>6.2531058227798086E-2</v>
       </c>
       <c r="G87">
-        <v>0.03362940214016963</v>
+        <v>3.3629402140169629E-2</v>
       </c>
       <c r="H87">
-        <v>6.253105822779808</v>
+        <v>6.2531058227798084</v>
       </c>
       <c r="I87">
-        <v>3.362940214016963</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>3.3629402140169629</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3028,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>0.1389766609042482</v>
+        <v>0.13897666090424821</v>
       </c>
       <c r="E88">
-        <v>10.5204413048026</v>
+        <v>10.520441304802601</v>
       </c>
       <c r="F88">
-        <v>0.01158138840868739</v>
+        <v>1.1581388408687389E-2</v>
       </c>
       <c r="G88">
         <v>0.1402725507307013</v>
@@ -3046,7 +3063,7 @@
         <v>14.02725507307013</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3060,22 +3077,22 @@
         <v>1.508899616141915</v>
       </c>
       <c r="E89">
-        <v>9.911003687236949</v>
+        <v>9.9110036872369491</v>
       </c>
       <c r="F89">
         <v>0.125741634678493</v>
       </c>
       <c r="G89">
-        <v>0.132146715829826</v>
+        <v>0.13214671582982601</v>
       </c>
       <c r="H89">
-        <v>12.5741634678493</v>
+        <v>12.574163467849299</v>
       </c>
       <c r="I89">
         <v>13.2146715829826</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3086,25 +3103,25 @@
         <v>1</v>
       </c>
       <c r="D90">
-        <v>0.8241579671598158</v>
+        <v>0.82415796715981582</v>
       </c>
       <c r="E90">
-        <v>6.348495512786052</v>
+        <v>6.3484955127860516</v>
       </c>
       <c r="F90">
-        <v>0.06867983059665134</v>
+        <v>6.8679830596651337E-2</v>
       </c>
       <c r="G90">
-        <v>0.08464660683714736</v>
+        <v>8.4646606837147365E-2</v>
       </c>
       <c r="H90">
-        <v>6.867983059665134</v>
+        <v>6.8679830596651339</v>
       </c>
       <c r="I90">
-        <v>8.464660683714737</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>8.4646606837147367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3115,25 +3132,25 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>0.7247630985311533</v>
+        <v>0.72476309853115328</v>
       </c>
       <c r="E91">
-        <v>0.6696262211771895</v>
+        <v>0.66962622117718951</v>
       </c>
       <c r="F91">
-        <v>0.06039692487759613</v>
+        <v>6.0396924877596132E-2</v>
       </c>
       <c r="G91">
-        <v>0.00892834961569583</v>
+        <v>8.9283496156958297E-3</v>
       </c>
       <c r="H91">
-        <v>6.039692487759613</v>
+        <v>6.0396924877596128</v>
       </c>
       <c r="I91">
-        <v>0.892834961569583</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.89283496156958297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3144,25 +3161,25 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>0.8241579671598158</v>
+        <v>0.82415796715981582</v>
       </c>
       <c r="E92">
-        <v>7.687747955140427</v>
+        <v>7.6877479551404271</v>
       </c>
       <c r="F92">
-        <v>0.06867983059665134</v>
+        <v>6.8679830596651337E-2</v>
       </c>
       <c r="G92">
         <v>0.102503306068539</v>
       </c>
       <c r="H92">
-        <v>6.867983059665134</v>
+        <v>6.8679830596651339</v>
       </c>
       <c r="I92">
         <v>10.2503306068539</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3176,22 +3193,22 @@
         <v>1.508899616141915</v>
       </c>
       <c r="E93">
-        <v>4.12523978068953</v>
+        <v>4.1252397806895296</v>
       </c>
       <c r="F93">
         <v>0.125741634678493</v>
       </c>
       <c r="G93">
-        <v>0.05500319707586038</v>
+        <v>5.5003197075860377E-2</v>
       </c>
       <c r="H93">
-        <v>12.5741634678493</v>
+        <v>12.574163467849299</v>
       </c>
       <c r="I93">
-        <v>5.500319707586038</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>5.5003197075860379</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3202,25 +3219,25 @@
         <v>1</v>
       </c>
       <c r="D94">
-        <v>1.091110701742496</v>
+        <v>1.0911107017424959</v>
       </c>
       <c r="E94">
-        <v>3.207004934114622</v>
+        <v>3.2070049341146221</v>
       </c>
       <c r="F94">
-        <v>0.09092589181187466</v>
+        <v>9.092589181187466E-2</v>
       </c>
       <c r="G94">
-        <v>0.04276006578819497</v>
+        <v>4.2760065788194968E-2</v>
       </c>
       <c r="H94">
-        <v>9.092589181187465</v>
+        <v>9.0925891811874653</v>
       </c>
       <c r="I94">
         <v>4.276006578819497</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3231,25 +3248,25 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>0.04367952819246579</v>
+        <v>4.3679528192465789E-2</v>
       </c>
       <c r="E95">
-        <v>1.864415815712201</v>
+        <v>1.8644158157122011</v>
       </c>
       <c r="F95">
-        <v>0.003639960682705501</v>
+        <v>3.6399606827055009E-3</v>
       </c>
       <c r="G95">
-        <v>0.02485887754282935</v>
+        <v>2.4858877542829349E-2</v>
       </c>
       <c r="H95">
-        <v>0.3639960682705501</v>
+        <v>0.36399606827055009</v>
       </c>
       <c r="I95">
-        <v>2.485887754282935</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>2.4858877542829352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3260,25 +3277,25 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>0.6634272529940817</v>
+        <v>0.66342725299408167</v>
       </c>
       <c r="E96">
-        <v>1.864415815712201</v>
+        <v>1.8644158157122011</v>
       </c>
       <c r="F96">
-        <v>0.05528560441617347</v>
+        <v>5.5285604416173473E-2</v>
       </c>
       <c r="G96">
-        <v>0.02485887754282935</v>
+        <v>2.4858877542829349E-2</v>
       </c>
       <c r="H96">
-        <v>5.528560441617348</v>
+        <v>5.5285604416173477</v>
       </c>
       <c r="I96">
-        <v>2.485887754282935</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>2.4858877542829352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3289,25 +3306,25 @@
         <v>3</v>
       </c>
       <c r="D97">
-        <v>0.3126580566505366</v>
+        <v>0.31265805665053659</v>
       </c>
       <c r="E97">
-        <v>0.6549662370101075</v>
+        <v>0.65496623701010748</v>
       </c>
       <c r="F97">
-        <v>0.02605483805421138</v>
+        <v>2.6054838054211379E-2</v>
       </c>
       <c r="G97">
-        <v>0.008732883160134763</v>
+        <v>8.7328831601347634E-3</v>
       </c>
       <c r="H97">
-        <v>2.605483805421138</v>
+        <v>2.6054838054211382</v>
       </c>
       <c r="I97">
-        <v>0.8732883160134763</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.87328831601347634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3324,19 +3341,19 @@
         <v>3.455260696830774</v>
       </c>
       <c r="F98">
-        <v>0.06783451135090257</v>
+        <v>6.7834511350902571E-2</v>
       </c>
       <c r="G98">
-        <v>0.04607014262441034</v>
+        <v>4.6070142624410337E-2</v>
       </c>
       <c r="H98">
-        <v>6.783451135090257</v>
+        <v>6.7834511350902567</v>
       </c>
       <c r="I98">
-        <v>4.607014262441034</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>4.6070142624410337</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3347,25 +3364,25 @@
         <v>3</v>
       </c>
       <c r="D99">
-        <v>1.004337756448419</v>
+        <v>1.0043377564484191</v>
       </c>
       <c r="E99">
-        <v>3.82506210996506</v>
+        <v>3.8250621099650601</v>
       </c>
       <c r="F99">
-        <v>0.08369481303736825</v>
+        <v>8.3694813037368254E-2</v>
       </c>
       <c r="G99">
-        <v>0.05100082813286755</v>
+        <v>5.1000828132867548E-2</v>
       </c>
       <c r="H99">
-        <v>8.369481303736826</v>
+        <v>8.3694813037368263</v>
       </c>
       <c r="I99">
-        <v>5.100082813286755</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>5.1000828132867548</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3376,25 +3393,25 @@
         <v>3</v>
       </c>
       <c r="D100">
-        <v>0.3195961074663192</v>
+        <v>0.31959610746631922</v>
       </c>
       <c r="E100">
-        <v>11.04737853850605</v>
+        <v>11.047378538506051</v>
       </c>
       <c r="F100">
-        <v>0.02663300895552662</v>
+        <v>2.6633008955526619E-2</v>
       </c>
       <c r="G100">
-        <v>0.147298380513414</v>
+        <v>0.14729838051341401</v>
       </c>
       <c r="H100">
-        <v>2.663300895552662</v>
+        <v>2.6633008955526618</v>
       </c>
       <c r="I100">
         <v>14.7298380513414</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3411,19 +3428,19 @@
         <v>3.455260696830774</v>
       </c>
       <c r="F101">
-        <v>0.02616784468423594</v>
+        <v>2.6167844684235941E-2</v>
       </c>
       <c r="G101">
-        <v>0.04607014262441034</v>
+        <v>4.6070142624410337E-2</v>
       </c>
       <c r="H101">
-        <v>2.616784468423594</v>
+        <v>2.6167844684235941</v>
       </c>
       <c r="I101">
-        <v>4.607014262441034</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>4.6070142624410337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3434,25 +3451,25 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1.106423180044554</v>
+        <v>1.1064231800445541</v>
       </c>
       <c r="E102">
         <v>1.110697936324718</v>
       </c>
       <c r="F102">
-        <v>0.09220193167037954</v>
+        <v>9.2201931670379544E-2</v>
       </c>
       <c r="G102">
-        <v>0.01480930581766292</v>
+        <v>1.480930581766292E-2</v>
       </c>
       <c r="H102">
-        <v>9.220193167037955</v>
+        <v>9.2201931670379551</v>
       </c>
       <c r="I102">
-        <v>1.480930581766292</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>1.4809305817662921</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3466,22 +3483,22 @@
         <v>0.1792140156629323</v>
       </c>
       <c r="E103">
-        <v>6.445589338573056</v>
+        <v>6.4455893385730558</v>
       </c>
       <c r="F103">
-        <v>0.01493450130524437</v>
+        <v>1.4934501305244371E-2</v>
       </c>
       <c r="G103">
-        <v>0.08594119118097408</v>
+        <v>8.5941191180974083E-2</v>
       </c>
       <c r="H103">
         <v>1.493450130524437</v>
       </c>
       <c r="I103">
-        <v>8.594119118097408</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>8.5941191180974084</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3492,25 +3509,25 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1.304571949884456</v>
+        <v>1.3045719498844559</v>
       </c>
       <c r="E104">
-        <v>9.887100632638194</v>
+        <v>9.8871006326381945</v>
       </c>
       <c r="F104">
-        <v>0.108714329157038</v>
+        <v>0.10871432915703801</v>
       </c>
       <c r="G104">
-        <v>0.1318280084351759</v>
+        <v>0.13182800843517589</v>
       </c>
       <c r="H104">
-        <v>10.8714329157038</v>
+        <v>10.871432915703799</v>
       </c>
       <c r="I104">
         <v>13.18280084351759</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3521,25 +3538,25 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>0.414765184049199</v>
+        <v>0.41476518404919899</v>
       </c>
       <c r="E105">
-        <v>3.94277161282421</v>
+        <v>3.9427716128242101</v>
       </c>
       <c r="F105">
-        <v>0.03456376533743327</v>
+        <v>3.4563765337433272E-2</v>
       </c>
       <c r="G105">
-        <v>0.05257028817098947</v>
+        <v>5.2570288170989472E-2</v>
       </c>
       <c r="H105">
         <v>3.456376533743327</v>
       </c>
       <c r="I105">
-        <v>5.257028817098947</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>5.2570288170989468</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3550,25 +3567,25 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>0.3908656273920199</v>
+        <v>0.39086562739201991</v>
       </c>
       <c r="E106">
-        <v>4.12523978068953</v>
+        <v>4.1252397806895296</v>
       </c>
       <c r="F106">
-        <v>0.0325721356160017</v>
+        <v>3.2572135616001703E-2</v>
       </c>
       <c r="G106">
-        <v>0.05500319707586038</v>
+        <v>5.5003197075860377E-2</v>
       </c>
       <c r="H106">
-        <v>3.25721356160017</v>
+        <v>3.2572135616001701</v>
       </c>
       <c r="I106">
-        <v>5.500319707586038</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>5.5003197075860379</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3579,25 +3596,25 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>0.2885423425308398</v>
+        <v>0.28854234253083982</v>
       </c>
       <c r="E107">
-        <v>6.32459245818729</v>
+        <v>6.3245924581872899</v>
       </c>
       <c r="F107">
-        <v>0.02404519521090331</v>
+        <v>2.4045195210903311E-2</v>
       </c>
       <c r="G107">
-        <v>0.08432789944249719</v>
+        <v>8.4327899442497189E-2</v>
       </c>
       <c r="H107">
         <v>2.404519521090331</v>
       </c>
       <c r="I107">
-        <v>8.43278994424972</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>8.4327899442497198</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3608,25 +3625,25 @@
         <v>0</v>
       </c>
       <c r="D108">
-        <v>0.9898258987265267</v>
+        <v>0.98982589872652671</v>
       </c>
       <c r="E108">
-        <v>3.634185780705458</v>
+        <v>3.6341857807054581</v>
       </c>
       <c r="F108">
-        <v>0.08248549156054386</v>
+        <v>8.2485491560543855E-2</v>
       </c>
       <c r="G108">
-        <v>0.04845581040940616</v>
+        <v>4.8455810409406157E-2</v>
       </c>
       <c r="H108">
         <v>8.248549156054386</v>
       </c>
       <c r="I108">
-        <v>4.845581040940616</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>4.8455810409406164</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3637,25 +3654,25 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>0.8879561369107289</v>
+        <v>0.88795613691072894</v>
       </c>
       <c r="E109">
-        <v>0.7315162918785489</v>
+        <v>0.73151629187854894</v>
       </c>
       <c r="F109">
-        <v>0.07399634474256067</v>
+        <v>7.3996344742560671E-2</v>
       </c>
       <c r="G109">
-        <v>0.009753550558380675</v>
+        <v>9.7535505583806748E-3</v>
       </c>
       <c r="H109">
-        <v>7.399634474256067</v>
+        <v>7.3996344742560671</v>
       </c>
       <c r="I109">
-        <v>0.9753550558380675</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.97535505583806748</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3666,25 +3683,25 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>0.8879561369107289</v>
+        <v>0.88795613691072894</v>
       </c>
       <c r="E110">
-        <v>5.608675454031356</v>
+        <v>5.6086754540313564</v>
       </c>
       <c r="F110">
-        <v>0.07399634474256067</v>
+        <v>7.3996344742560671E-2</v>
       </c>
       <c r="G110">
-        <v>0.07478233938708467</v>
+        <v>7.4782339387084673E-2</v>
       </c>
       <c r="H110">
-        <v>7.399634474256067</v>
+        <v>7.3996344742560671</v>
       </c>
       <c r="I110">
-        <v>7.478233938708467</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>7.4782339387084669</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3698,22 +3715,22 @@
         <v>1.752962639233679</v>
       </c>
       <c r="E111">
-        <v>1.514774448079102</v>
+        <v>1.5147744480791021</v>
       </c>
       <c r="F111">
         <v>0.1460802199361399</v>
       </c>
       <c r="G111">
-        <v>0.02019699264105468</v>
+        <v>2.0196992641054679E-2</v>
       </c>
       <c r="H111">
         <v>14.60802199361399</v>
       </c>
       <c r="I111">
-        <v>2.019699264105468</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>2.0196992641054679</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3727,22 +3744,22 @@
         <v>1.66591381655722</v>
       </c>
       <c r="E112">
-        <v>8.53289618204235</v>
+        <v>8.5328961820423501</v>
       </c>
       <c r="F112">
-        <v>0.1388261513797683</v>
+        <v>0.13882615137976831</v>
       </c>
       <c r="G112">
         <v>0.113771949093898</v>
       </c>
       <c r="H112">
-        <v>13.88261513797683</v>
+        <v>13.882615137976829</v>
       </c>
       <c r="I112">
         <v>11.3771949093898</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3753,25 +3770,25 @@
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0.8879561369107289</v>
+        <v>0.88795613691072894</v>
       </c>
       <c r="E113">
-        <v>5.608675454031356</v>
+        <v>5.6086754540313564</v>
       </c>
       <c r="F113">
-        <v>0.07399634474256067</v>
+        <v>7.3996344742560671E-2</v>
       </c>
       <c r="G113">
-        <v>0.07478233938708467</v>
+        <v>7.4782339387084673E-2</v>
       </c>
       <c r="H113">
-        <v>7.399634474256067</v>
+        <v>7.3996344742560671</v>
       </c>
       <c r="I113">
-        <v>7.478233938708467</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>7.4782339387084669</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3782,25 +3799,25 @@
         <v>0</v>
       </c>
       <c r="D114">
-        <v>0.3097592231098023</v>
+        <v>0.30975922310980231</v>
       </c>
       <c r="E114">
         <v>5.701903961878628</v>
       </c>
       <c r="F114">
-        <v>0.02581326859248356</v>
+        <v>2.5813268592483559E-2</v>
       </c>
       <c r="G114">
-        <v>0.07602538615838161</v>
+        <v>7.6025386158381614E-2</v>
       </c>
       <c r="H114">
-        <v>2.581326859248356</v>
+        <v>2.5813268592483558</v>
       </c>
       <c r="I114">
-        <v>7.602538615838162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>7.6025386158381618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3811,25 +3828,25 @@
         <v>0</v>
       </c>
       <c r="D115">
-        <v>0.3325407729134309</v>
+        <v>0.33254077291343093</v>
       </c>
       <c r="E115">
         <v>2.68342737764101</v>
       </c>
       <c r="F115">
-        <v>0.02771173107611924</v>
+        <v>2.7711731076119239E-2</v>
       </c>
       <c r="G115">
-        <v>0.03577903170188013</v>
+        <v>3.5779031701880133E-2</v>
       </c>
       <c r="H115">
-        <v>2.771173107611924</v>
+        <v>2.7711731076119239</v>
       </c>
       <c r="I115">
-        <v>3.577903170188013</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>3.5779031701880131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3840,25 +3857,25 @@
         <v>0</v>
       </c>
       <c r="D116">
-        <v>0.05838938147787864</v>
+        <v>5.8389381477878637E-2</v>
       </c>
       <c r="E116">
         <v>10.0661389326053</v>
       </c>
       <c r="F116">
-        <v>0.00486578178982322</v>
+        <v>4.8657817898232203E-3</v>
       </c>
       <c r="G116">
-        <v>0.1342151857680706</v>
+        <v>0.13421518576807059</v>
       </c>
       <c r="H116">
-        <v>0.486578178982322</v>
+        <v>0.48657817898232197</v>
       </c>
       <c r="I116">
         <v>13.42151857680706</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3869,25 +3886,25 @@
         <v>0</v>
       </c>
       <c r="D117">
-        <v>0.4839669801631636</v>
+        <v>0.48396698016316358</v>
       </c>
       <c r="E117">
-        <v>8.093545818086511</v>
+        <v>8.0935458180865112</v>
       </c>
       <c r="F117">
-        <v>0.0403305816802636</v>
+        <v>4.03305816802636E-2</v>
       </c>
       <c r="G117">
         <v>0.1079139442411534</v>
       </c>
       <c r="H117">
-        <v>4.03305816802636</v>
+        <v>4.0330581680263604</v>
       </c>
       <c r="I117">
-        <v>10.79139442411534</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>10.791394424115341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3898,25 +3915,25 @@
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0.9041665784226396</v>
+        <v>0.90416657842263959</v>
       </c>
       <c r="E118">
-        <v>4.416802263847345</v>
+        <v>4.4168022638473454</v>
       </c>
       <c r="F118">
-        <v>0.07534721486855323</v>
+        <v>7.5347214868553225E-2</v>
       </c>
       <c r="G118">
-        <v>0.05889069685129789</v>
+        <v>5.8890696851297893E-2</v>
       </c>
       <c r="H118">
-        <v>7.534721486855323</v>
+        <v>7.5347214868553234</v>
       </c>
       <c r="I118">
-        <v>5.889069685129789</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>5.8890696851297886</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3927,25 +3944,25 @@
         <v>0</v>
       </c>
       <c r="D119">
-        <v>0.4518736325241672</v>
+        <v>0.45187363252416718</v>
       </c>
       <c r="E119">
-        <v>5.718083365097243</v>
+        <v>5.7180833650972431</v>
       </c>
       <c r="F119">
-        <v>0.03765613604368057</v>
+        <v>3.7656136043680573E-2</v>
       </c>
       <c r="G119">
-        <v>0.07624111153462987</v>
+        <v>7.6241111534629868E-2</v>
       </c>
       <c r="H119">
         <v>3.765613604368057</v>
       </c>
       <c r="I119">
-        <v>7.624111153462987</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>7.6241111534629873</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3956,25 +3973,25 @@
         <v>0</v>
       </c>
       <c r="D120">
-        <v>0.6328860431696501</v>
+        <v>0.63288604316965014</v>
       </c>
       <c r="E120">
-        <v>8.481853440925335</v>
+        <v>8.4818534409253346</v>
       </c>
       <c r="F120">
-        <v>0.05274050359747084</v>
+        <v>5.2740503597470838E-2</v>
       </c>
       <c r="G120">
-        <v>0.1130913792123378</v>
+        <v>0.11309137921233781</v>
       </c>
       <c r="H120">
-        <v>5.274050359747084</v>
+        <v>5.2740503597470836</v>
       </c>
       <c r="I120">
-        <v>11.30913792123378</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>11.309137921233781</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3988,22 +4005,22 @@
         <v>0.2284874629287188</v>
       </c>
       <c r="E121">
-        <v>3.17202580284777</v>
+        <v>3.1720258028477701</v>
       </c>
       <c r="F121">
-        <v>0.01904062191072653</v>
+        <v>1.904062191072653E-2</v>
       </c>
       <c r="G121">
-        <v>0.04229367737130352</v>
+        <v>4.2293677371303517E-2</v>
       </c>
       <c r="H121">
         <v>1.904062191072653</v>
       </c>
       <c r="I121">
-        <v>4.229367737130351</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>4.2293677371303513</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4017,22 +4034,22 @@
         <v>0.4076028835032055</v>
       </c>
       <c r="E122">
-        <v>4.809214565343296</v>
+        <v>4.8092145653432956</v>
       </c>
       <c r="F122">
-        <v>0.03396690695860038</v>
+        <v>3.3966906958600378E-2</v>
       </c>
       <c r="G122">
-        <v>0.06412286087124397</v>
+        <v>6.412286087124397E-2</v>
       </c>
       <c r="H122">
         <v>3.396690695860038</v>
       </c>
       <c r="I122">
-        <v>6.412286087124397</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>6.4122860871243974</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4043,7 +4060,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1.7339030011538</v>
+        <v>1.7339030011537999</v>
       </c>
       <c r="E123">
         <v>3.185311134671593</v>
@@ -4052,16 +4069,16 @@
         <v>0.1444919167628167</v>
       </c>
       <c r="G123">
-        <v>0.04247081512895456</v>
+        <v>4.2470815128954557E-2</v>
       </c>
       <c r="H123">
         <v>14.44919167628167</v>
       </c>
       <c r="I123">
-        <v>4.247081512895456</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>4.2470815128954564</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4075,22 +4092,22 @@
         <v>1.552890590508317</v>
       </c>
       <c r="E124">
-        <v>0.421541058843502</v>
+        <v>0.42154105884350201</v>
       </c>
       <c r="F124">
-        <v>0.1294075492090264</v>
+        <v>0.12940754920902639</v>
       </c>
       <c r="G124">
-        <v>0.005620547451246738</v>
+        <v>5.6205474512467379E-3</v>
       </c>
       <c r="H124">
         <v>12.94075492090264</v>
       </c>
       <c r="I124">
-        <v>0.5620547451246738</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.56205474512467379</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4101,25 +4118,25 @@
         <v>6</v>
       </c>
       <c r="D125">
-        <v>6.761239253617317</v>
+        <v>6.7612392536173171</v>
       </c>
       <c r="E125">
-        <v>11.65040336087561</v>
+        <v>11.650403360875609</v>
       </c>
       <c r="F125">
-        <v>0.5634366044681098</v>
+        <v>0.56343660446810984</v>
       </c>
       <c r="G125">
         <v>0.1553387114783415</v>
       </c>
       <c r="H125">
-        <v>56.34366044681099</v>
+        <v>56.343660446810993</v>
       </c>
       <c r="I125">
         <v>15.53387114783415</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4133,22 +4150,22 @@
         <v>1.619957475571479</v>
       </c>
       <c r="E126">
-        <v>1.838350866095055</v>
+        <v>1.8383508660950549</v>
       </c>
       <c r="F126">
-        <v>0.1349964562976232</v>
+        <v>0.13499645629762319</v>
       </c>
       <c r="G126">
-        <v>0.02451134488126749</v>
+        <v>2.451134488126749E-2</v>
       </c>
       <c r="H126">
         <v>13.49964562976233</v>
       </c>
       <c r="I126">
-        <v>2.451134488126749</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>2.4511344881267489</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4162,22 +4179,22 @@
         <v>1.619957475571479</v>
       </c>
       <c r="E127">
-        <v>1.838350866095055</v>
+        <v>1.8383508660950549</v>
       </c>
       <c r="F127">
-        <v>0.1349964562976232</v>
+        <v>0.13499645629762319</v>
       </c>
       <c r="G127">
-        <v>0.02451134488126749</v>
+        <v>2.451134488126749E-2</v>
       </c>
       <c r="H127">
         <v>13.49964562976233</v>
       </c>
       <c r="I127">
-        <v>2.451134488126749</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>2.4511344881267489</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4188,25 +4205,25 @@
         <v>0</v>
       </c>
       <c r="D128">
-        <v>1.644315805513966</v>
+        <v>1.6443158055139659</v>
       </c>
       <c r="E128">
-        <v>2.22001741408809</v>
+        <v>2.2200174140880899</v>
       </c>
       <c r="F128">
-        <v>0.1370263171261638</v>
+        <v>0.13702631712616381</v>
       </c>
       <c r="G128">
-        <v>0.02960023218784125</v>
+        <v>2.960023218784125E-2</v>
       </c>
       <c r="H128">
         <v>13.70263171261638</v>
       </c>
       <c r="I128">
-        <v>2.960023218784125</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>2.9600232187841251</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4217,7 +4234,7 @@
         <v>6</v>
       </c>
       <c r="D129">
-        <v>6.261239253617317</v>
+        <v>6.2612392536173171</v>
       </c>
       <c r="E129">
         <v>11.65040367918551</v>
@@ -4226,16 +4243,16 @@
         <v>0.5217699378014431</v>
       </c>
       <c r="G129">
-        <v>0.1553387157224735</v>
+        <v>0.15533871572247351</v>
       </c>
       <c r="H129">
-        <v>52.17699378014431</v>
+        <v>52.176993780144308</v>
       </c>
       <c r="I129">
-        <v>15.53387157224735</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>15.533871572247349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4246,25 +4263,25 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>0.04469006239526685</v>
+        <v>4.469006239526685E-2</v>
       </c>
       <c r="E130">
-        <v>6.110495666593209</v>
+        <v>6.1104956665932093</v>
       </c>
       <c r="F130">
-        <v>0.003724171866272274</v>
+        <v>3.724171866272274E-3</v>
       </c>
       <c r="G130">
-        <v>0.08147327555457606</v>
+        <v>8.1473275554576063E-2</v>
       </c>
       <c r="H130">
-        <v>0.3724171866272274</v>
+        <v>0.37241718662722739</v>
       </c>
       <c r="I130">
-        <v>8.147327555457606</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>8.1473275554576059</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4278,22 +4295,22 @@
         <v>0.2054557278226383</v>
       </c>
       <c r="E131">
-        <v>5.600057420673679</v>
+        <v>5.6000574206736786</v>
       </c>
       <c r="F131">
-        <v>0.0171213106518866</v>
+        <v>1.7121310651886601E-2</v>
       </c>
       <c r="G131">
-        <v>0.07466743227564909</v>
+        <v>7.4667432275649093E-2</v>
       </c>
       <c r="H131">
-        <v>1.71213106518866</v>
+        <v>1.7121310651886601</v>
       </c>
       <c r="I131">
-        <v>7.466743227564909</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>7.4667432275649093</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4304,25 +4321,25 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>0.821532543763869</v>
+        <v>0.82153254376386897</v>
       </c>
       <c r="E132">
-        <v>4.06681467011073</v>
+        <v>4.0668146701107304</v>
       </c>
       <c r="F132">
-        <v>0.06846104531365582</v>
+        <v>6.8461045313655822E-2</v>
       </c>
       <c r="G132">
-        <v>0.0542241956014764</v>
+        <v>5.4224195601476399E-2</v>
       </c>
       <c r="H132">
-        <v>6.846104531365582</v>
+        <v>6.8461045313655822</v>
       </c>
       <c r="I132">
-        <v>5.42241956014764</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>5.4224195601476399</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4333,25 +4350,25 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>0.9010285393197108</v>
+        <v>0.90102853931971083</v>
       </c>
       <c r="E133">
-        <v>1.409444457261401</v>
+        <v>1.4094444572614011</v>
       </c>
       <c r="F133">
-        <v>0.0750857116099759</v>
+        <v>7.5085711609975903E-2</v>
       </c>
       <c r="G133">
-        <v>0.01879259276348533</v>
+        <v>1.8792592763485331E-2</v>
       </c>
       <c r="H133">
-        <v>7.50857116099759</v>
+        <v>7.5085711609975903</v>
       </c>
       <c r="I133">
         <v>1.879259276348533</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4362,25 +4379,25 @@
         <v>1</v>
       </c>
       <c r="D134">
-        <v>2.439020420918695</v>
+        <v>2.4390204209186952</v>
       </c>
       <c r="E134">
-        <v>0.9799235110325242</v>
+        <v>0.97992351103252417</v>
       </c>
       <c r="F134">
-        <v>0.2032517017432245</v>
+        <v>0.20325170174322449</v>
       </c>
       <c r="G134">
-        <v>0.0130656468137671</v>
+        <v>1.3065646813767101E-2</v>
       </c>
       <c r="H134">
-        <v>20.32517017432245</v>
+        <v>20.325170174322452</v>
       </c>
       <c r="I134">
         <v>1.30656468137671</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4391,25 +4408,25 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>0.345352609732906</v>
+        <v>0.34535260973290599</v>
       </c>
       <c r="E135">
-        <v>3.400704743175908</v>
+        <v>3.4007047431759081</v>
       </c>
       <c r="F135">
-        <v>0.02877938414440884</v>
+        <v>2.8779384144408841E-2</v>
       </c>
       <c r="G135">
-        <v>0.04534272990901211</v>
+        <v>4.5342729909012107E-2</v>
       </c>
       <c r="H135">
-        <v>2.877938414440884</v>
+        <v>2.8779384144408842</v>
       </c>
       <c r="I135">
-        <v>4.534272990901211</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>4.5342729909012114</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4420,25 +4437,25 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>0.821532543763869</v>
+        <v>0.82153254376386897</v>
       </c>
       <c r="E136">
-        <v>4.06681467011073</v>
+        <v>4.0668146701107304</v>
       </c>
       <c r="F136">
-        <v>0.06846104531365582</v>
+        <v>6.8461045313655822E-2</v>
       </c>
       <c r="G136">
-        <v>0.0542241956014764</v>
+        <v>5.4224195601476399E-2</v>
       </c>
       <c r="H136">
-        <v>6.846104531365582</v>
+        <v>6.8461045313655822</v>
       </c>
       <c r="I136">
-        <v>5.42241956014764</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>5.4224195601476399</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4449,25 +4466,25 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1.319937659570371</v>
+        <v>1.3199376595703709</v>
       </c>
       <c r="E137">
-        <v>4.249282837976054</v>
+        <v>4.2492828379760539</v>
       </c>
       <c r="F137">
         <v>0.1099948049641977</v>
       </c>
       <c r="G137">
-        <v>0.05665710450634731</v>
+        <v>5.6657104506347311E-2</v>
       </c>
       <c r="H137">
-        <v>10.99948049641977</v>
+        <v>10.999480496419769</v>
       </c>
       <c r="I137">
-        <v>5.665710450634731</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>5.6657104506347311</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4478,25 +4495,25 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>0.1527641710696095</v>
+        <v>0.15276417106960949</v>
       </c>
       <c r="E138">
         <v>3.185311134671593</v>
       </c>
       <c r="F138">
-        <v>0.01273034758913416</v>
+        <v>1.2730347589134159E-2</v>
       </c>
       <c r="G138">
-        <v>0.04247081512895456</v>
+        <v>4.2470815128954557E-2</v>
       </c>
       <c r="H138">
-        <v>1.273034758913416</v>
+        <v>1.2730347589134161</v>
       </c>
       <c r="I138">
-        <v>4.247081512895456</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>4.2470815128954564</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4510,13 +4527,13 @@
         <v>1.147752110594531</v>
       </c>
       <c r="E139">
-        <v>2.612429715584042</v>
+        <v>2.6124297155840419</v>
       </c>
       <c r="F139">
-        <v>0.09564600921621091</v>
+        <v>9.5646009216210914E-2</v>
       </c>
       <c r="G139">
-        <v>0.03483239620778722</v>
+        <v>3.483239620778722E-2</v>
       </c>
       <c r="H139">
         <v>9.564600921621091</v>
@@ -4525,7 +4542,7 @@
         <v>3.483239620778722</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4536,25 +4553,25 @@
         <v>4</v>
       </c>
       <c r="D140">
-        <v>6.761239253617317</v>
+        <v>6.7612392536173171</v>
       </c>
       <c r="E140">
-        <v>11.65040336087561</v>
+        <v>11.650403360875609</v>
       </c>
       <c r="F140">
-        <v>0.5634366044681098</v>
+        <v>0.56343660446810984</v>
       </c>
       <c r="G140">
         <v>0.1553387114783415</v>
       </c>
       <c r="H140">
-        <v>56.34366044681099</v>
+        <v>56.343660446810993</v>
       </c>
       <c r="I140">
         <v>15.53387114783415</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4565,25 +4582,25 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>0.6249695360465566</v>
+        <v>0.62496953604655658</v>
       </c>
       <c r="E141">
-        <v>2.411232285182621</v>
+        <v>2.4112322851826211</v>
       </c>
       <c r="F141">
-        <v>0.05208079467054638</v>
+        <v>5.2080794670546382E-2</v>
       </c>
       <c r="G141">
-        <v>0.03214976380243484</v>
+        <v>3.2149763802434839E-2</v>
       </c>
       <c r="H141">
-        <v>5.208079467054638</v>
+        <v>5.2080794670546382</v>
       </c>
       <c r="I141">
-        <v>3.214976380243484</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>3.2149763802434839</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4594,25 +4611,25 @@
         <v>4</v>
       </c>
       <c r="D142">
-        <v>4.794054105392009</v>
+        <v>4.7940541053920089</v>
       </c>
       <c r="E142">
         <v>10.7412531064164</v>
       </c>
       <c r="F142">
-        <v>0.3995045087826674</v>
+        <v>0.39950450878266741</v>
       </c>
       <c r="G142">
-        <v>0.143216708085552</v>
+        <v>0.14321670808555201</v>
       </c>
       <c r="H142">
-        <v>39.95045087826674</v>
+        <v>39.950450878266743</v>
       </c>
       <c r="I142">
-        <v>14.3216708085552</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>14.321670808555201</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4623,25 +4640,25 @@
         <v>4</v>
       </c>
       <c r="D143">
-        <v>6.294054105392009</v>
+        <v>6.2940541053920089</v>
       </c>
       <c r="E143">
         <v>10.74125187864969</v>
       </c>
       <c r="F143">
-        <v>0.5245045087826674</v>
+        <v>0.52450450878266741</v>
       </c>
       <c r="G143">
-        <v>0.1432166917153292</v>
+        <v>0.14321669171532919</v>
       </c>
       <c r="H143">
-        <v>52.45045087826674</v>
+        <v>52.450450878266743</v>
       </c>
       <c r="I143">
-        <v>14.32166917153292</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>14.321669171532919</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4652,25 +4669,25 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>0.008862273712285429</v>
+        <v>8.8622737122854289E-3</v>
       </c>
       <c r="E144">
         <v>6.798623109210439</v>
       </c>
       <c r="F144">
-        <v>0.0007385228093571561</v>
+        <v>7.3852280935715608E-4</v>
       </c>
       <c r="G144">
-        <v>0.09064830812280578</v>
+        <v>9.0648308122805776E-2</v>
       </c>
       <c r="H144">
-        <v>0.07385228093571561</v>
+        <v>7.3852280935715608E-2</v>
       </c>
       <c r="I144">
-        <v>9.064830812280578</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>9.0648308122805776</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4684,13 +4701,13 @@
         <v>1.399761546639176</v>
       </c>
       <c r="E145">
-        <v>3.914259261220266</v>
+        <v>3.9142592612202658</v>
       </c>
       <c r="F145">
         <v>0.1166467955532646</v>
       </c>
       <c r="G145">
-        <v>0.05219012348293683</v>
+        <v>5.2190123482936827E-2</v>
       </c>
       <c r="H145">
         <v>11.66467955532646</v>
@@ -4699,7 +4716,7 @@
         <v>5.219012348293683</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4710,25 +4727,25 @@
         <v>2</v>
       </c>
       <c r="D146">
-        <v>1.104300660763453</v>
+        <v>1.1043006607634529</v>
       </c>
       <c r="E146">
-        <v>7.421305242594599</v>
+        <v>7.4213052425945989</v>
       </c>
       <c r="F146">
-        <v>0.09202505506362102</v>
+        <v>9.202505506362102E-2</v>
       </c>
       <c r="G146">
-        <v>0.09895073656792785</v>
+        <v>9.8950736567927855E-2</v>
       </c>
       <c r="H146">
-        <v>9.202505506362101</v>
+        <v>9.2025055063621011</v>
       </c>
       <c r="I146">
-        <v>9.895073656792785</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>9.8950736567927855</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4739,25 +4756,25 @@
         <v>2</v>
       </c>
       <c r="D147">
-        <v>1.77075125795823</v>
+        <v>1.7707512579582301</v>
       </c>
       <c r="E147">
-        <v>0.854294089396447</v>
+        <v>0.85429408939644702</v>
       </c>
       <c r="F147">
         <v>0.1475626048298524</v>
       </c>
       <c r="G147">
-        <v>0.01139058785861924</v>
+        <v>1.1390587858619241E-2</v>
       </c>
       <c r="H147">
         <v>14.75626048298524</v>
       </c>
       <c r="I147">
-        <v>1.139058785861924</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>1.1390587858619241</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4771,13 +4788,13 @@
         <v>1.399761546639176</v>
       </c>
       <c r="E148">
-        <v>3.914259261220266</v>
+        <v>3.9142592612202658</v>
       </c>
       <c r="F148">
         <v>0.1166467955532646</v>
       </c>
       <c r="G148">
-        <v>0.05219012348293683</v>
+        <v>5.2190123482936827E-2</v>
       </c>
       <c r="H148">
         <v>11.66467955532646</v>
@@ -4786,7 +4803,7 @@
         <v>5.219012348293683</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4797,25 +4814,25 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>0.8879561369107289</v>
+        <v>0.88795613691072894</v>
       </c>
       <c r="E149">
-        <v>5.608675454031356</v>
+        <v>5.6086754540313564</v>
       </c>
       <c r="F149">
-        <v>0.07399634474256067</v>
+        <v>7.3996344742560671E-2</v>
       </c>
       <c r="G149">
-        <v>0.07478233938708467</v>
+        <v>7.4782339387084673E-2</v>
       </c>
       <c r="H149">
-        <v>7.399634474256067</v>
+        <v>7.3996344742560671</v>
       </c>
       <c r="I149">
-        <v>7.478233938708467</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>7.4782339387084669</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4826,25 +4843,25 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1.164221870014105</v>
+        <v>1.1642218700141049</v>
       </c>
       <c r="E150">
-        <v>2.748833404993377</v>
+        <v>2.7488334049933769</v>
       </c>
       <c r="F150">
-        <v>0.097018489167842</v>
+        <v>9.7018489167842004E-2</v>
       </c>
       <c r="G150">
-        <v>0.03665111206657834</v>
+        <v>3.665111206657834E-2</v>
       </c>
       <c r="H150">
-        <v>9.701848916784201</v>
+        <v>9.7018489167842006</v>
       </c>
       <c r="I150">
         <v>3.665111206657834</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4855,25 +4872,25 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1.533812802034694</v>
+        <v>1.5338128020346939</v>
       </c>
       <c r="E151">
-        <v>0.1516189511259753</v>
+        <v>0.15161895112597529</v>
       </c>
       <c r="F151">
-        <v>0.1278177335028911</v>
+        <v>0.12781773350289111</v>
       </c>
       <c r="G151">
-        <v>0.002021586015012899</v>
+        <v>2.021586015012899E-3</v>
       </c>
       <c r="H151">
-        <v>12.78177335028911</v>
+        <v>12.781773350289111</v>
       </c>
       <c r="I151">
-        <v>0.2021586015012899</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.20215860150128989</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4887,22 +4904,22 @@
         <v>1.752962639233679</v>
       </c>
       <c r="E152">
-        <v>1.514774448079102</v>
+        <v>1.5147744480791021</v>
       </c>
       <c r="F152">
         <v>0.1460802199361399</v>
       </c>
       <c r="G152">
-        <v>0.02019699264105468</v>
+        <v>2.0196992641054679E-2</v>
       </c>
       <c r="H152">
         <v>14.60802199361399</v>
       </c>
       <c r="I152">
-        <v>2.019699264105468</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>2.0196992641054679</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4913,13 +4930,13 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>0.9248878634245363</v>
+        <v>0.92488786342453633</v>
       </c>
       <c r="E153">
-        <v>8.78660901508848</v>
+        <v>8.7866090150884801</v>
       </c>
       <c r="F153">
-        <v>0.07707398861871134</v>
+        <v>7.7073988618711342E-2</v>
       </c>
       <c r="G153">
         <v>0.1171547868678464</v>
@@ -4928,10 +4945,10 @@
         <v>7.707398861871134</v>
       </c>
       <c r="I153">
-        <v>11.71547868678464</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>11.715478686784641</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4945,22 +4962,22 @@
         <v>1.752962639233679</v>
       </c>
       <c r="E154">
-        <v>1.514774448079102</v>
+        <v>1.5147744480791021</v>
       </c>
       <c r="F154">
         <v>0.1460802199361399</v>
       </c>
       <c r="G154">
-        <v>0.02019699264105468</v>
+        <v>2.0196992641054679E-2</v>
       </c>
       <c r="H154">
         <v>14.60802199361399</v>
       </c>
       <c r="I154">
-        <v>2.019699264105468</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>2.0196992641054679</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4971,25 +4988,25 @@
         <v>1</v>
       </c>
       <c r="D155">
-        <v>0.7503726987335773</v>
+        <v>0.75037269873357726</v>
       </c>
       <c r="E155">
-        <v>2.522205160512719</v>
+        <v>2.5222051605127191</v>
       </c>
       <c r="F155">
-        <v>0.06253105822779809</v>
+        <v>6.2531058227798086E-2</v>
       </c>
       <c r="G155">
-        <v>0.03362940214016963</v>
+        <v>3.3629402140169629E-2</v>
       </c>
       <c r="H155">
-        <v>6.253105822779808</v>
+        <v>6.2531058227798084</v>
       </c>
       <c r="I155">
-        <v>3.362940214016963</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>3.3629402140169629</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -5003,22 +5020,22 @@
         <v>1.363335050615706</v>
       </c>
       <c r="E156">
-        <v>2.630218073870289</v>
+        <v>2.6302180738702892</v>
       </c>
       <c r="F156">
-        <v>0.1136112542179755</v>
+        <v>0.11361125421797549</v>
       </c>
       <c r="G156">
-        <v>0.03506957431827051</v>
+        <v>3.5069574318270513E-2</v>
       </c>
       <c r="H156">
-        <v>11.36112542179755</v>
+        <v>11.361125421797549</v>
       </c>
       <c r="I156">
-        <v>3.506957431827051</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>3.5069574318270509</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -5035,19 +5052,19 @@
         <v>1.252364935342378</v>
       </c>
       <c r="F157">
-        <v>0.06102545498810708</v>
+        <v>6.1025454988107082E-2</v>
       </c>
       <c r="G157">
-        <v>0.01669819913789838</v>
+        <v>1.6698199137898381E-2</v>
       </c>
       <c r="H157">
-        <v>6.102545498810708</v>
+        <v>6.1025454988107084</v>
       </c>
       <c r="I157">
         <v>1.669819913789838</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -5058,16 +5075,16 @@
         <v>1</v>
       </c>
       <c r="D158">
-        <v>1.355792089352785</v>
+        <v>1.3557920893527851</v>
       </c>
       <c r="E158">
-        <v>6.192726248321193</v>
+        <v>6.1927262483211933</v>
       </c>
       <c r="F158">
-        <v>0.1129826741127321</v>
+        <v>0.11298267411273211</v>
       </c>
       <c r="G158">
-        <v>0.08256968331094927</v>
+        <v>8.2569683310949271E-2</v>
       </c>
       <c r="H158">
         <v>11.2982674112732</v>
@@ -5076,7 +5093,7 @@
         <v>8.256968331094928</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -5087,16 +5104,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>0.2525000454307342</v>
+        <v>0.25250004543073418</v>
       </c>
       <c r="E159">
         <v>11.08189022717321</v>
       </c>
       <c r="F159">
-        <v>0.02104167045256117</v>
+        <v>2.1041670452561171E-2</v>
       </c>
       <c r="G159">
-        <v>0.1477585363623095</v>
+        <v>0.14775853636230951</v>
       </c>
       <c r="H159">
         <v>2.104167045256117</v>
@@ -5105,7 +5122,7 @@
         <v>14.77585363623094</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -5125,16 +5142,16 @@
         <v>0.1234483030428411</v>
       </c>
       <c r="G160">
-        <v>0.0843278994424973</v>
+        <v>8.4327899442497301E-2</v>
       </c>
       <c r="H160">
-        <v>12.34483030428411</v>
+        <v>12.344830304284111</v>
       </c>
       <c r="I160">
-        <v>8.43278994424973</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>8.4327899442497305</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -5148,22 +5165,22 @@
         <v>0.1918716401938001</v>
       </c>
       <c r="E161">
-        <v>8.523945135685061</v>
+        <v>8.5239451356850608</v>
       </c>
       <c r="F161">
-        <v>0.01598930334948334</v>
+        <v>1.5989303349483341E-2</v>
       </c>
       <c r="G161">
         <v>0.1136526018091342</v>
       </c>
       <c r="H161">
-        <v>1.598930334948334</v>
+        <v>1.5989303349483339</v>
       </c>
       <c r="I161">
         <v>11.36526018091342</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -5174,16 +5191,16 @@
         <v>0</v>
       </c>
       <c r="D162">
-        <v>0.2248012341670469</v>
+        <v>0.22480123416704689</v>
       </c>
       <c r="E162">
-        <v>4.063768493209967</v>
+        <v>4.0637684932099667</v>
       </c>
       <c r="F162">
-        <v>0.01873343618058726</v>
+        <v>1.873343618058726E-2</v>
       </c>
       <c r="G162">
-        <v>0.05418357990946622</v>
+        <v>5.418357990946622E-2</v>
       </c>
       <c r="H162">
         <v>1.873343618058726</v>
@@ -5192,7 +5209,7 @@
         <v>5.418357990946622</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -5203,25 +5220,25 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>0.6756347543198453</v>
+        <v>0.67563475431984532</v>
       </c>
       <c r="E163">
         <v>6.160075490999871</v>
       </c>
       <c r="F163">
-        <v>0.05630289619332046</v>
+        <v>5.6302896193320462E-2</v>
       </c>
       <c r="G163">
-        <v>0.08213433987999827</v>
+        <v>8.2134339879998269E-2</v>
       </c>
       <c r="H163">
-        <v>5.630289619332046</v>
+        <v>5.6302896193320464</v>
       </c>
       <c r="I163">
-        <v>8.213433987999826</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>8.2134339879998262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5232,25 +5249,25 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>0.8778700253834937</v>
+        <v>0.87787002538349368</v>
       </c>
       <c r="E164">
-        <v>8.0078227899022</v>
+        <v>8.0078227899021996</v>
       </c>
       <c r="F164">
-        <v>0.07315583544862447</v>
+        <v>7.3155835448624473E-2</v>
       </c>
       <c r="G164">
         <v>0.1067709705320293</v>
       </c>
       <c r="H164">
-        <v>7.315583544862447</v>
+        <v>7.3155835448624469</v>
       </c>
       <c r="I164">
         <v>10.67709705320293</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5264,22 +5281,22 @@
         <v>1.508899616141915</v>
       </c>
       <c r="E165">
-        <v>4.12523978068953</v>
+        <v>4.1252397806895296</v>
       </c>
       <c r="F165">
         <v>0.125741634678493</v>
       </c>
       <c r="G165">
-        <v>0.05500319707586038</v>
+        <v>5.5003197075860377E-2</v>
       </c>
       <c r="H165">
-        <v>12.5741634678493</v>
+        <v>12.574163467849299</v>
       </c>
       <c r="I165">
-        <v>5.500319707586038</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>5.5003197075860379</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5290,25 +5307,25 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>0.562457192940137</v>
+        <v>0.56245719294013696</v>
       </c>
       <c r="E166">
         <v>14.14057183150236</v>
       </c>
       <c r="F166">
-        <v>0.04687143274501138</v>
+        <v>4.6871432745011377E-2</v>
       </c>
       <c r="G166">
         <v>0.1885409577533648</v>
       </c>
       <c r="H166">
-        <v>4.687143274501137</v>
+        <v>4.6871432745011372</v>
       </c>
       <c r="I166">
-        <v>18.85409577533648</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>18.854095775336479</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5319,25 +5336,25 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>0.3675579130793531</v>
+        <v>0.36755791307935309</v>
       </c>
       <c r="E167">
-        <v>4.063768493209967</v>
+        <v>4.0637684932099667</v>
       </c>
       <c r="F167">
-        <v>0.03062982608994608</v>
+        <v>3.0629826089946081E-2</v>
       </c>
       <c r="G167">
-        <v>0.05418357990946622</v>
+        <v>5.418357990946622E-2</v>
       </c>
       <c r="H167">
-        <v>3.062982608994608</v>
+        <v>3.0629826089946079</v>
       </c>
       <c r="I167">
         <v>5.418357990946622</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5348,25 +5365,25 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>0.7928932188134525</v>
+        <v>0.79289321881345254</v>
       </c>
       <c r="E168">
         <v>9.06505117707799</v>
       </c>
       <c r="F168">
-        <v>0.06607443490112103</v>
+        <v>6.6074434901121026E-2</v>
       </c>
       <c r="G168">
         <v>0.1208673490277065</v>
       </c>
       <c r="H168">
-        <v>6.607443490112103</v>
+        <v>6.6074434901121029</v>
       </c>
       <c r="I168">
-        <v>12.08673490277065</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>12.086734902770649</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5377,25 +5394,25 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>0.6122316191398749</v>
+        <v>0.61223161913987489</v>
       </c>
       <c r="E169">
-        <v>7.597214453867402</v>
+        <v>7.5972144538674016</v>
       </c>
       <c r="F169">
-        <v>0.05101930159498957</v>
+        <v>5.1019301594989568E-2</v>
       </c>
       <c r="G169">
-        <v>0.101296192718232</v>
+        <v>0.10129619271823199</v>
       </c>
       <c r="H169">
-        <v>5.101930159498957</v>
+        <v>5.1019301594989566</v>
       </c>
       <c r="I169">
         <v>10.1296192718232</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5406,25 +5423,25 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>0.3126580566505366</v>
+        <v>0.31265805665053659</v>
       </c>
       <c r="E170">
-        <v>10.65496623701011</v>
+        <v>10.654966237010109</v>
       </c>
       <c r="F170">
-        <v>0.02605483805421138</v>
+        <v>2.6054838054211379E-2</v>
       </c>
       <c r="G170">
-        <v>0.1420662164934681</v>
+        <v>0.14206621649346809</v>
       </c>
       <c r="H170">
-        <v>2.605483805421138</v>
+        <v>2.6054838054211382</v>
       </c>
       <c r="I170">
-        <v>14.20662164934681</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>14.206621649346809</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5435,25 +5452,25 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>0.7235852642138845</v>
+        <v>0.72358526421388447</v>
       </c>
       <c r="E171">
-        <v>8.562508174450898</v>
+        <v>8.5625081744508975</v>
       </c>
       <c r="F171">
-        <v>0.06029877201782374</v>
+        <v>6.0298772017823743E-2</v>
       </c>
       <c r="G171">
         <v>0.1141667756593453</v>
       </c>
       <c r="H171">
-        <v>6.029877201782375</v>
+        <v>6.0298772017823747</v>
       </c>
       <c r="I171">
-        <v>11.41667756593453</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>11.416677565934529</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5464,25 +5481,25 @@
         <v>0</v>
       </c>
       <c r="D172">
-        <v>0.562457192940137</v>
+        <v>0.56245719294013696</v>
       </c>
       <c r="E172">
         <v>12.42447934557563</v>
       </c>
       <c r="F172">
-        <v>0.04687143274501138</v>
+        <v>4.6871432745011377E-2</v>
       </c>
       <c r="G172">
         <v>0.165659724607675</v>
       </c>
       <c r="H172">
-        <v>4.687143274501137</v>
+        <v>4.6871432745011372</v>
       </c>
       <c r="I172">
-        <v>16.5659724607675</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>16.565972460767501</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5493,25 +5510,25 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1.023158826703222</v>
+        <v>1.0231588267032219</v>
       </c>
       <c r="E173">
-        <v>6.814688865328407</v>
+        <v>6.8146888653284066</v>
       </c>
       <c r="F173">
-        <v>0.08526323555860182</v>
+        <v>8.5263235558601824E-2</v>
       </c>
       <c r="G173">
-        <v>0.09086251820437874</v>
+        <v>9.0862518204378739E-2</v>
       </c>
       <c r="H173">
-        <v>8.526323555860182</v>
+        <v>8.5263235558601824</v>
       </c>
       <c r="I173">
-        <v>9.086251820437873</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>9.0862518204378731</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5522,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="D174">
-        <v>1.882301463605503</v>
+        <v>1.8823014636055031</v>
       </c>
       <c r="E174">
-        <v>13.0136866925518</v>
+        <v>13.013686692551801</v>
       </c>
       <c r="F174">
-        <v>0.1568584553004586</v>
+        <v>0.15685845530045861</v>
       </c>
       <c r="G174">
         <v>0.1735158225673574</v>
@@ -5537,10 +5554,10 @@
         <v>15.68584553004586</v>
       </c>
       <c r="I174">
-        <v>17.35158225673574</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>17.351582256735739</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5551,25 +5568,25 @@
         <v>0</v>
       </c>
       <c r="D175">
-        <v>2.519766203760296</v>
+        <v>2.5197662037602959</v>
       </c>
       <c r="E175">
-        <v>7.152274632968357</v>
+        <v>7.1522746329683571</v>
       </c>
       <c r="F175">
-        <v>0.2099805169800247</v>
+        <v>0.20998051698002471</v>
       </c>
       <c r="G175">
-        <v>0.09536366177291145</v>
+        <v>9.5363661772911446E-2</v>
       </c>
       <c r="H175">
         <v>20.99805169800247</v>
       </c>
       <c r="I175">
-        <v>9.536366177291145</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>9.5363661772911446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5583,7 +5600,7 @@
         <v>1.419196622271208</v>
       </c>
       <c r="E176">
-        <v>8.948635515473811</v>
+        <v>8.9486355154738106</v>
       </c>
       <c r="F176">
         <v>0.1182663851892674</v>
@@ -5592,13 +5609,13 @@
         <v>0.1193151402063175</v>
       </c>
       <c r="H176">
-        <v>11.82663851892674</v>
+        <v>11.826638518926741</v>
       </c>
       <c r="I176">
         <v>11.93151402063175</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5609,25 +5626,25 @@
         <v>0</v>
       </c>
       <c r="D177">
-        <v>2.953058543528091</v>
+        <v>2.9530585435280909</v>
       </c>
       <c r="E177">
-        <v>10.71478280741925</v>
+        <v>10.714782807419249</v>
       </c>
       <c r="F177">
-        <v>0.2460882119606743</v>
+        <v>0.24608821196067429</v>
       </c>
       <c r="G177">
-        <v>0.1428637707655901</v>
+        <v>0.14286377076559009</v>
       </c>
       <c r="H177">
-        <v>24.60882119606743</v>
+        <v>24.608821196067431</v>
       </c>
       <c r="I177">
         <v>14.28637707655901</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5638,25 +5655,25 @@
         <v>0</v>
       </c>
       <c r="D178">
-        <v>2.671325041455274</v>
+        <v>2.6713250414552738</v>
       </c>
       <c r="E178">
-        <v>12.68123094353454</v>
+        <v>12.681230943534541</v>
       </c>
       <c r="F178">
-        <v>0.2226104201212729</v>
+        <v>0.22261042012127291</v>
       </c>
       <c r="G178">
         <v>0.1690830792471272</v>
       </c>
       <c r="H178">
-        <v>22.26104201212729</v>
+        <v>22.261042012127291</v>
       </c>
       <c r="I178">
-        <v>16.90830792471272</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16.908307924712719</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5667,25 +5684,25 @@
         <v>2</v>
       </c>
       <c r="D179">
-        <v>3.861805088890221</v>
+        <v>3.8618050888902209</v>
       </c>
       <c r="E179">
-        <v>9.373591356639235</v>
+        <v>9.3735913566392348</v>
       </c>
       <c r="F179">
-        <v>0.3218170907408517</v>
+        <v>0.32181709074085169</v>
       </c>
       <c r="G179">
         <v>0.1249812180885231</v>
       </c>
       <c r="H179">
-        <v>32.18170907408518</v>
+        <v>32.181709074085177</v>
       </c>
       <c r="I179">
-        <v>12.49812180885231</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>12.498121808852311</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5714,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5743,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5801,7 +5818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5812,25 +5829,25 @@
         <v>1</v>
       </c>
       <c r="D184">
-        <v>4.861805088890221</v>
+        <v>4.8618050888902209</v>
       </c>
       <c r="E184">
-        <v>9.373592550301314</v>
+        <v>9.3735925503013142</v>
       </c>
       <c r="F184">
-        <v>0.4051504240741851</v>
+        <v>0.40515042407418511</v>
       </c>
       <c r="G184">
-        <v>0.1249812340040175</v>
+        <v>0.12498123400401751</v>
       </c>
       <c r="H184">
-        <v>40.51504240741851</v>
+        <v>40.515042407418512</v>
       </c>
       <c r="I184">
-        <v>12.49812340040175</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>12.498123400401751</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5859,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5888,7 +5905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5899,25 +5916,25 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>0.6535678946826327</v>
+        <v>0.65356789468263266</v>
       </c>
       <c r="E187">
         <v>4.217474411461005</v>
       </c>
       <c r="F187">
-        <v>0.05446399122355272</v>
+        <v>5.4463991223552721E-2</v>
       </c>
       <c r="G187">
-        <v>0.05623299215281341</v>
+        <v>5.623299215281341E-2</v>
       </c>
       <c r="H187">
-        <v>5.446399122355272</v>
+        <v>5.4463991223552721</v>
       </c>
       <c r="I187">
-        <v>5.623299215281341</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>5.6232992152813406</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5928,13 +5945,13 @@
         <v>2</v>
       </c>
       <c r="D188">
-        <v>1.882301463605503</v>
+        <v>1.8823014636055031</v>
       </c>
       <c r="E188">
-        <v>13.0136866925518</v>
+        <v>13.013686692551801</v>
       </c>
       <c r="F188">
-        <v>0.1568584553004586</v>
+        <v>0.15685845530045861</v>
       </c>
       <c r="G188">
         <v>0.1735158225673574</v>
@@ -5943,10 +5960,10 @@
         <v>15.68584553004586</v>
       </c>
       <c r="I188">
-        <v>17.35158225673574</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>17.351582256735739</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5960,7 +5977,7 @@
         <v>1.419196622271208</v>
       </c>
       <c r="E189">
-        <v>8.948635515473811</v>
+        <v>8.9486355154738106</v>
       </c>
       <c r="F189">
         <v>0.1182663851892674</v>
@@ -5969,13 +5986,13 @@
         <v>0.1193151402063175</v>
       </c>
       <c r="H189">
-        <v>11.82663851892674</v>
+        <v>11.826638518926741</v>
       </c>
       <c r="I189">
         <v>11.93151402063175</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5986,25 +6003,25 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>0.7235852642138845</v>
+        <v>0.72358526421388447</v>
       </c>
       <c r="E190">
-        <v>9.872440648471112</v>
+        <v>9.8724406484711125</v>
       </c>
       <c r="F190">
-        <v>0.06029877201782374</v>
+        <v>6.0298772017823743E-2</v>
       </c>
       <c r="G190">
         <v>0.1316325419796148</v>
       </c>
       <c r="H190">
-        <v>6.029877201782375</v>
+        <v>6.0298772017823747</v>
       </c>
       <c r="I190">
         <v>13.16325419796148</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -6015,25 +6032,25 @@
         <v>2</v>
       </c>
       <c r="D191">
-        <v>0.6535678946826327</v>
+        <v>0.65356789468263266</v>
       </c>
       <c r="E191">
         <v>4.217474411461005</v>
       </c>
       <c r="F191">
-        <v>0.05446399122355272</v>
+        <v>5.4463991223552721E-2</v>
       </c>
       <c r="G191">
-        <v>0.05623299215281341</v>
+        <v>5.623299215281341E-2</v>
       </c>
       <c r="H191">
-        <v>5.446399122355272</v>
+        <v>5.4463991223552721</v>
       </c>
       <c r="I191">
-        <v>5.623299215281341</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>5.6232992152813406</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -6044,25 +6061,25 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>0.09133110009702827</v>
+        <v>9.1331100097028273E-2</v>
       </c>
       <c r="E192">
         <v>1.82990412704504</v>
       </c>
       <c r="F192">
-        <v>0.007610925008085689</v>
+        <v>7.6109250080856894E-3</v>
       </c>
       <c r="G192">
-        <v>0.02439872169393387</v>
+        <v>2.439872169393387E-2</v>
       </c>
       <c r="H192">
-        <v>0.7610925008085689</v>
+        <v>0.76109250080856894</v>
       </c>
       <c r="I192">
-        <v>2.439872169393387</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>2.4398721693933871</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -6073,25 +6090,25 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>0.3895485830260714</v>
+        <v>0.38954858302607143</v>
       </c>
       <c r="E193">
-        <v>4.028142115918325</v>
+        <v>4.0281421159183246</v>
       </c>
       <c r="F193">
-        <v>0.03246238191883932</v>
+        <v>3.2462381918839323E-2</v>
       </c>
       <c r="G193">
-        <v>0.05370856154557768</v>
+        <v>5.3708561545577682E-2</v>
       </c>
       <c r="H193">
-        <v>3.246238191883932</v>
+        <v>3.2462381918839318</v>
       </c>
       <c r="I193">
-        <v>5.370856154557768</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>5.3708561545577682</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -6105,22 +6122,22 @@
         <v>0.1104514169739286</v>
       </c>
       <c r="E194">
-        <v>2.312049629991584</v>
+        <v>2.3120496299915838</v>
       </c>
       <c r="F194">
-        <v>0.009204284747827363</v>
+        <v>9.2042847478273626E-3</v>
       </c>
       <c r="G194">
-        <v>0.03082732839988778</v>
+        <v>3.082732839988778E-2</v>
       </c>
       <c r="H194">
-        <v>0.9204284747827363</v>
+        <v>0.92042847478273626</v>
       </c>
       <c r="I194">
-        <v>3.082732839988778</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>3.0827328399887781</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -6131,25 +6148,25 @@
         <v>1</v>
       </c>
       <c r="D195">
-        <v>0.04336929448399385</v>
+        <v>4.3369294483993848E-2</v>
       </c>
       <c r="E195">
-        <v>5.153705918251038</v>
+        <v>5.1537059182510383</v>
       </c>
       <c r="F195">
-        <v>0.003614107873666172</v>
+        <v>3.614107873666172E-3</v>
       </c>
       <c r="G195">
-        <v>0.06871607891001384</v>
+        <v>6.8716078910013842E-2</v>
       </c>
       <c r="H195">
-        <v>0.3614107873666172</v>
+        <v>0.36141078736661719</v>
       </c>
       <c r="I195">
-        <v>6.871607891001384</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>6.8716078910013838</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -6160,25 +6177,25 @@
         <v>2</v>
       </c>
       <c r="D196">
-        <v>1.091110701742496</v>
+        <v>1.0911107017424959</v>
       </c>
       <c r="E196">
-        <v>3.207004934114622</v>
+        <v>3.2070049341146221</v>
       </c>
       <c r="F196">
-        <v>0.09092589181187466</v>
+        <v>9.092589181187466E-2</v>
       </c>
       <c r="G196">
-        <v>0.04276006578819497</v>
+        <v>4.2760065788194968E-2</v>
       </c>
       <c r="H196">
-        <v>9.092589181187465</v>
+        <v>9.0925891811874653</v>
       </c>
       <c r="I196">
         <v>4.276006578819497</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -6189,25 +6206,25 @@
         <v>1</v>
       </c>
       <c r="D197">
-        <v>0.04367952819246579</v>
+        <v>4.3679528192465789E-2</v>
       </c>
       <c r="E197">
-        <v>1.864415815712201</v>
+        <v>1.8644158157122011</v>
       </c>
       <c r="F197">
-        <v>0.003639960682705501</v>
+        <v>3.6399606827055009E-3</v>
       </c>
       <c r="G197">
-        <v>0.02485887754282935</v>
+        <v>2.4858877542829349E-2</v>
       </c>
       <c r="H197">
-        <v>0.3639960682705501</v>
+        <v>0.36399606827055009</v>
       </c>
       <c r="I197">
-        <v>2.485887754282935</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>2.4858877542829352</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -6218,25 +6235,25 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>0.6039699559517411</v>
+        <v>0.60396995595174108</v>
       </c>
       <c r="E198">
-        <v>10.32817234778573</v>
+        <v>10.328172347785729</v>
       </c>
       <c r="F198">
-        <v>0.05033082966264507</v>
+        <v>5.0330829662645071E-2</v>
       </c>
       <c r="G198">
-        <v>0.137708964637143</v>
+        <v>0.13770896463714299</v>
       </c>
       <c r="H198">
-        <v>5.033082966264507</v>
+        <v>5.0330829662645069</v>
       </c>
       <c r="I198">
-        <v>13.7708964637143</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>13.770896463714299</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -6247,25 +6264,25 @@
         <v>0</v>
       </c>
       <c r="D199">
-        <v>0.414765184049199</v>
+        <v>0.41476518404919899</v>
       </c>
       <c r="E199">
-        <v>3.94277161282421</v>
+        <v>3.9427716128242101</v>
       </c>
       <c r="F199">
-        <v>0.03456376533743327</v>
+        <v>3.4563765337433272E-2</v>
       </c>
       <c r="G199">
-        <v>0.05257028817098947</v>
+        <v>5.2570288170989472E-2</v>
       </c>
       <c r="H199">
         <v>3.456376533743327</v>
       </c>
       <c r="I199">
-        <v>5.257028817098947</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>5.2570288170989468</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -6276,25 +6293,25 @@
         <v>0</v>
       </c>
       <c r="D200">
-        <v>1.045794774807621</v>
+        <v>1.0457947748076211</v>
       </c>
       <c r="E200">
-        <v>0.06018860361153955</v>
+        <v>6.0188603611539548E-2</v>
       </c>
       <c r="F200">
-        <v>0.08714956456730172</v>
+        <v>8.7149564567301718E-2</v>
       </c>
       <c r="G200">
-        <v>0.0008025147148205125</v>
+        <v>8.0251471482051251E-4</v>
       </c>
       <c r="H200">
-        <v>8.714956456730171</v>
+        <v>8.7149564567301709</v>
       </c>
       <c r="I200">
-        <v>0.08025147148205125</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>8.0251471482051251E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -6305,25 +6322,25 @@
         <v>0</v>
       </c>
       <c r="D201">
-        <v>1.045794774807621</v>
+        <v>1.0457947748076211</v>
       </c>
       <c r="E201">
-        <v>0.06018860361153955</v>
+        <v>6.0188603611539548E-2</v>
       </c>
       <c r="F201">
-        <v>0.08714956456730172</v>
+        <v>8.7149564567301718E-2</v>
       </c>
       <c r="G201">
-        <v>0.0008025147148205125</v>
+        <v>8.0251471482051251E-4</v>
       </c>
       <c r="H201">
-        <v>8.714956456730171</v>
+        <v>8.7149564567301709</v>
       </c>
       <c r="I201">
-        <v>0.08025147148205125</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>8.0251471482051251E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -6334,25 +6351,25 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>0.06596632246734124</v>
+        <v>6.5966322467341243E-2</v>
       </c>
       <c r="E202">
-        <v>2.226772026338892</v>
+        <v>2.2267720263388919</v>
       </c>
       <c r="F202">
-        <v>0.005497193538945122</v>
+        <v>5.4971935389451221E-3</v>
       </c>
       <c r="G202">
-        <v>0.02969029368451859</v>
+        <v>2.9690293684518591E-2</v>
       </c>
       <c r="H202">
-        <v>0.5497193538945122</v>
+        <v>0.54971935389451221</v>
       </c>
       <c r="I202">
-        <v>2.969029368451859</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>2.9690293684518592</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -6363,25 +6380,25 @@
         <v>1</v>
       </c>
       <c r="D203">
-        <v>0.07742384809541836</v>
+        <v>7.7423848095418357E-2</v>
       </c>
       <c r="E203">
         <v>3.502319570839362</v>
       </c>
       <c r="F203">
-        <v>0.006451987341284882</v>
+        <v>6.4519873412848816E-3</v>
       </c>
       <c r="G203">
-        <v>0.04669759427785813</v>
+        <v>4.6697594277858127E-2</v>
       </c>
       <c r="H203">
-        <v>0.6451987341284882</v>
+        <v>0.64519873412848816</v>
       </c>
       <c r="I203">
         <v>4.669759427785813</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -6395,22 +6412,22 @@
         <v>1.363335050615706</v>
       </c>
       <c r="E204">
-        <v>2.630218073870289</v>
+        <v>2.6302180738702892</v>
       </c>
       <c r="F204">
-        <v>0.1136112542179755</v>
+        <v>0.11361125421797549</v>
       </c>
       <c r="G204">
-        <v>0.03506957431827051</v>
+        <v>3.5069574318270513E-2</v>
       </c>
       <c r="H204">
-        <v>11.36112542179755</v>
+        <v>11.361125421797549</v>
       </c>
       <c r="I204">
-        <v>3.506957431827051</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>3.5069574318270509</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -6421,25 +6438,25 @@
         <v>0</v>
       </c>
       <c r="D205">
-        <v>0.4369309194369748</v>
+        <v>0.43693091943697482</v>
       </c>
       <c r="E205">
         <v>10.14976451204161</v>
       </c>
       <c r="F205">
-        <v>0.03641090995308122</v>
+        <v>3.6410909953081223E-2</v>
       </c>
       <c r="G205">
-        <v>0.1353301934938881</v>
+        <v>0.13533019349388811</v>
       </c>
       <c r="H205">
         <v>3.641090995308121</v>
       </c>
       <c r="I205">
-        <v>13.53301934938881</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>13.533019349388811</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -6450,25 +6467,25 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>0.6389766609042482</v>
+        <v>0.63897666090424821</v>
       </c>
       <c r="E206">
-        <v>10.5204413048026</v>
+        <v>10.520441304802601</v>
       </c>
       <c r="F206">
-        <v>0.05324805507535402</v>
+        <v>5.3248055075354017E-2</v>
       </c>
       <c r="G206">
         <v>0.1402725507307013</v>
       </c>
       <c r="H206">
-        <v>5.324805507535402</v>
+        <v>5.3248055075354017</v>
       </c>
       <c r="I206">
         <v>14.02725507307013</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6482,22 +6499,22 @@
         <v>1.014304721233787</v>
       </c>
       <c r="E207">
-        <v>2.630218073870296</v>
+        <v>2.6302180738702958</v>
       </c>
       <c r="F207">
-        <v>0.08452539343614895</v>
+        <v>8.4525393436148955E-2</v>
       </c>
       <c r="G207">
-        <v>0.03506957431827062</v>
+        <v>3.5069574318270617E-2</v>
       </c>
       <c r="H207">
-        <v>8.452539343614895</v>
+        <v>8.4525393436148946</v>
       </c>
       <c r="I207">
         <v>3.506957431827062</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6508,25 +6525,25 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>0.2816317026951989</v>
+        <v>0.28163170269519888</v>
       </c>
       <c r="E208">
-        <v>13.3392843242523</v>
+        <v>13.339284324252301</v>
       </c>
       <c r="F208">
-        <v>0.02346930855793317</v>
+        <v>2.346930855793317E-2</v>
       </c>
       <c r="G208">
-        <v>0.177857124323364</v>
+        <v>0.17785712432336401</v>
       </c>
       <c r="H208">
-        <v>2.346930855793317</v>
+        <v>2.3469308557933171</v>
       </c>
       <c r="I208">
         <v>17.7857124323364</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6537,25 +6554,25 @@
         <v>0</v>
       </c>
       <c r="D209">
-        <v>1.095365614843525</v>
+        <v>1.0953656148435249</v>
       </c>
       <c r="E209">
-        <v>0.9603616690667636</v>
+        <v>0.96036166906676357</v>
       </c>
       <c r="F209">
-        <v>0.09128046790362698</v>
+        <v>9.1280467903626983E-2</v>
       </c>
       <c r="G209">
-        <v>0.01280482225422352</v>
+        <v>1.2804822254223519E-2</v>
       </c>
       <c r="H209">
-        <v>9.128046790362699</v>
+        <v>9.1280467903626992</v>
       </c>
       <c r="I209">
         <v>1.280482225422352</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6566,25 +6583,25 @@
         <v>4</v>
       </c>
       <c r="D210">
-        <v>1.237316423003694</v>
+        <v>1.2373164230036939</v>
       </c>
       <c r="E210">
-        <v>0.8580405133854256</v>
+        <v>0.85804051338542564</v>
       </c>
       <c r="F210">
-        <v>0.1031097019169745</v>
+        <v>0.10310970191697449</v>
       </c>
       <c r="G210">
-        <v>0.01144054017847235</v>
+        <v>1.1440540178472351E-2</v>
       </c>
       <c r="H210">
         <v>10.31097019169745</v>
       </c>
       <c r="I210">
-        <v>1.144054017847235</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>1.1440540178472349</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6598,22 +6615,22 @@
         <v>0.2116443778941601</v>
       </c>
       <c r="E211">
-        <v>7.169740685089209</v>
+        <v>7.1697406850892094</v>
       </c>
       <c r="F211">
-        <v>0.01763703149118001</v>
+        <v>1.7637031491180011E-2</v>
       </c>
       <c r="G211">
-        <v>0.09559654246785609</v>
+        <v>9.5596542467856094E-2</v>
       </c>
       <c r="H211">
-        <v>1.763703149118001</v>
+        <v>1.7637031491180011</v>
       </c>
       <c r="I211">
-        <v>9.559654246785609</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>9.5596542467856089</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6624,25 +6641,25 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1.104300660763453</v>
+        <v>1.1043006607634529</v>
       </c>
       <c r="E212">
-        <v>7.421305242594599</v>
+        <v>7.4213052425945989</v>
       </c>
       <c r="F212">
-        <v>0.09202505506362102</v>
+        <v>9.202505506362102E-2</v>
       </c>
       <c r="G212">
-        <v>0.09895073656792785</v>
+        <v>9.8950736567927855E-2</v>
       </c>
       <c r="H212">
-        <v>9.202505506362101</v>
+        <v>9.2025055063621011</v>
       </c>
       <c r="I212">
-        <v>9.895073656792785</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>9.8950736567927855</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6653,25 +6670,25 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>0.3513647228617742</v>
+        <v>0.35136472286177423</v>
       </c>
       <c r="E213">
-        <v>3.534098809616324</v>
+        <v>3.5340988096163239</v>
       </c>
       <c r="F213">
-        <v>0.02928039357181444</v>
+        <v>2.9280393571814441E-2</v>
       </c>
       <c r="G213">
-        <v>0.04712131746155102</v>
+        <v>4.7121317461551022E-2</v>
       </c>
       <c r="H213">
         <v>2.928039357181444</v>
       </c>
       <c r="I213">
-        <v>4.712131746155102</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>4.7121317461551024</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6682,25 +6699,25 @@
         <v>0</v>
       </c>
       <c r="D214">
-        <v>0.2125209380884296</v>
+        <v>0.21252093808842959</v>
       </c>
       <c r="E214">
-        <v>14.00539425118714</v>
+        <v>14.005394251187139</v>
       </c>
       <c r="F214">
-        <v>0.0177100781740358</v>
+        <v>1.77100781740358E-2</v>
       </c>
       <c r="G214">
-        <v>0.1867385900158285</v>
+        <v>0.18673859001582849</v>
       </c>
       <c r="H214">
-        <v>1.77100781740358</v>
+        <v>1.7710078174035799</v>
       </c>
       <c r="I214">
-        <v>18.67385900158285</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>18.673859001582851</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6714,22 +6731,22 @@
         <v>0.4076028835032055</v>
       </c>
       <c r="E215">
-        <v>4.809214565343296</v>
+        <v>4.8092145653432956</v>
       </c>
       <c r="F215">
-        <v>0.03396690695860038</v>
+        <v>3.3966906958600378E-2</v>
       </c>
       <c r="G215">
-        <v>0.06412286087124397</v>
+        <v>6.412286087124397E-2</v>
       </c>
       <c r="H215">
         <v>3.396690695860038</v>
       </c>
       <c r="I215">
-        <v>6.412286087124397</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>6.4122860871243974</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6740,25 +6757,25 @@
         <v>0</v>
       </c>
       <c r="D216">
-        <v>0.9041665784226396</v>
+        <v>0.90416657842263959</v>
       </c>
       <c r="E216">
-        <v>4.416802263847345</v>
+        <v>4.4168022638473454</v>
       </c>
       <c r="F216">
-        <v>0.07534721486855323</v>
+        <v>7.5347214868553225E-2</v>
       </c>
       <c r="G216">
-        <v>0.05889069685129789</v>
+        <v>5.8890696851297893E-2</v>
       </c>
       <c r="H216">
-        <v>7.534721486855323</v>
+        <v>7.5347214868553234</v>
       </c>
       <c r="I216">
-        <v>5.889069685129789</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>5.8890696851297886</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6769,25 +6786,25 @@
         <v>0</v>
       </c>
       <c r="D217">
-        <v>0.5054259686317195</v>
+        <v>0.50542596863171951</v>
       </c>
       <c r="E217">
-        <v>7.191035410706377</v>
+        <v>7.1910354107063768</v>
       </c>
       <c r="F217">
-        <v>0.04211883071931</v>
+        <v>4.2118830719310003E-2</v>
       </c>
       <c r="G217">
-        <v>0.09588047214275175</v>
+        <v>9.5880472142751749E-2</v>
       </c>
       <c r="H217">
-        <v>4.211883071931</v>
+        <v>4.2118830719310001</v>
       </c>
       <c r="I217">
-        <v>9.588047214275175</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>9.5880472142751749</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6798,25 +6815,25 @@
         <v>0</v>
       </c>
       <c r="D218">
-        <v>0.607736965844019</v>
+        <v>0.60773696584401904</v>
       </c>
       <c r="E218">
-        <v>7.813717544090565</v>
+        <v>7.8137175440905651</v>
       </c>
       <c r="F218">
-        <v>0.05064474715366818</v>
+        <v>5.0644747153668179E-2</v>
       </c>
       <c r="G218">
         <v>0.1041829005878743</v>
       </c>
       <c r="H218">
-        <v>5.064474715366818</v>
+        <v>5.0644747153668179</v>
       </c>
       <c r="I218">
-        <v>10.41829005878743</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>10.418290058787431</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6827,25 +6844,25 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>1.048630531047403</v>
+        <v>1.0486305310474029</v>
       </c>
       <c r="E219">
-        <v>0.6465194979600994</v>
+        <v>0.64651949796009944</v>
       </c>
       <c r="F219">
-        <v>0.08738587758728356</v>
+        <v>8.7385877587283556E-2</v>
       </c>
       <c r="G219">
-        <v>0.008620259972801358</v>
+        <v>8.6202599728013585E-3</v>
       </c>
       <c r="H219">
-        <v>8.738587758728356</v>
+        <v>8.7385877587283556</v>
       </c>
       <c r="I219">
-        <v>0.8620259972801358</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>0.86202599728013585</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6856,25 +6873,25 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>0.7764423659106789</v>
+        <v>0.77644236591067894</v>
       </c>
       <c r="E220">
-        <v>4.775226194603704</v>
+        <v>4.7752261946037038</v>
       </c>
       <c r="F220">
-        <v>0.06470353049255662</v>
+        <v>6.4703530492556616E-2</v>
       </c>
       <c r="G220">
-        <v>0.06366968259471606</v>
+        <v>6.3669682594716059E-2</v>
       </c>
       <c r="H220">
         <v>6.470353049255662</v>
       </c>
       <c r="I220">
-        <v>6.366968259471606</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>6.3669682594716059</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6885,25 +6902,25 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>0.6249695360465566</v>
+        <v>0.62496953604655658</v>
       </c>
       <c r="E221">
-        <v>2.411232285182621</v>
+        <v>2.4112322851826211</v>
       </c>
       <c r="F221">
-        <v>0.05208079467054638</v>
+        <v>5.2080794670546382E-2</v>
       </c>
       <c r="G221">
-        <v>0.03214976380243484</v>
+        <v>3.2149763802434839E-2</v>
       </c>
       <c r="H221">
-        <v>5.208079467054638</v>
+        <v>5.2080794670546382</v>
       </c>
       <c r="I221">
-        <v>3.214976380243484</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>3.2149763802434839</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6914,25 +6931,25 @@
         <v>4</v>
       </c>
       <c r="D222">
-        <v>9.384822050459888</v>
+        <v>9.3848220504598885</v>
       </c>
       <c r="E222">
         <v>11.65101226793146</v>
       </c>
       <c r="F222">
-        <v>0.7820685042049906</v>
+        <v>0.78206850420499063</v>
       </c>
       <c r="G222">
         <v>0.1553468302390861</v>
       </c>
       <c r="H222">
-        <v>78.20685042049907</v>
+        <v>78.206850420499066</v>
       </c>
       <c r="I222">
         <v>15.53468302390861</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6943,25 +6960,25 @@
         <v>0</v>
       </c>
       <c r="D223">
-        <v>1.688666455872266</v>
+        <v>1.6886664558722659</v>
       </c>
       <c r="E223">
         <v>6.459883214054301</v>
       </c>
       <c r="F223">
-        <v>0.1407222046560221</v>
+        <v>0.14072220465602209</v>
       </c>
       <c r="G223">
-        <v>0.08613177618739076</v>
+        <v>8.6131776187390763E-2</v>
       </c>
       <c r="H223">
-        <v>14.07222046560221</v>
+        <v>14.072220465602211</v>
       </c>
       <c r="I223">
-        <v>8.613177618739076</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>8.6131776187390763</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6972,25 +6989,25 @@
         <v>5</v>
       </c>
       <c r="D224">
-        <v>9.884822050459888</v>
+        <v>9.8848220504598885</v>
       </c>
       <c r="E224">
         <v>11.65101240434997</v>
       </c>
       <c r="F224">
-        <v>0.8237351708716574</v>
+        <v>0.82373517087165737</v>
       </c>
       <c r="G224">
-        <v>0.1553468320579997</v>
+        <v>0.15534683205799971</v>
       </c>
       <c r="H224">
-        <v>82.37351708716574</v>
+        <v>82.373517087165737</v>
       </c>
       <c r="I224">
         <v>15.53468320579996</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -7001,25 +7018,25 @@
         <v>0</v>
       </c>
       <c r="D225">
-        <v>0.691629321459315</v>
+        <v>0.69162932145931499</v>
       </c>
       <c r="E225">
-        <v>6.120870758678649</v>
+        <v>6.1208707586786488</v>
       </c>
       <c r="F225">
-        <v>0.05763577678827625</v>
+        <v>5.763577678827625E-2</v>
       </c>
       <c r="G225">
-        <v>0.08161161011571538</v>
+        <v>8.1611610115715383E-2</v>
       </c>
       <c r="H225">
         <v>5.763577678827625</v>
       </c>
       <c r="I225">
-        <v>8.161161011571538</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>8.1611610115715383</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7030,25 +7047,25 @@
         <v>5</v>
       </c>
       <c r="D226">
-        <v>10.51472527276444</v>
+        <v>10.514725272764441</v>
       </c>
       <c r="E226">
         <v>13.70506861228411</v>
       </c>
       <c r="F226">
-        <v>0.8762271060637037</v>
+        <v>0.87622710606370369</v>
       </c>
       <c r="G226">
-        <v>0.1827342481637882</v>
+        <v>0.18273424816378819</v>
       </c>
       <c r="H226">
-        <v>87.62271060637036</v>
+        <v>87.622710606370362</v>
       </c>
       <c r="I226">
-        <v>18.27342481637882</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>18.273424816378821</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7062,22 +7079,22 @@
         <v>0.8437577255394082</v>
       </c>
       <c r="E227">
-        <v>3.583172911041231</v>
+        <v>3.5831729110412311</v>
       </c>
       <c r="F227">
-        <v>0.07031314379495068</v>
+        <v>7.0313143794950683E-2</v>
       </c>
       <c r="G227">
-        <v>0.04777563881388303</v>
+        <v>4.7775638813883033E-2</v>
       </c>
       <c r="H227">
-        <v>7.031314379495068</v>
+        <v>7.0313143794950683</v>
       </c>
       <c r="I227">
-        <v>4.777563881388303</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>4.7775638813883026</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -7088,25 +7105,25 @@
         <v>0</v>
       </c>
       <c r="D228">
-        <v>2.351177701145993</v>
+        <v>2.3511777011459931</v>
       </c>
       <c r="E228">
-        <v>2.962250872460601</v>
+        <v>2.9622508724606011</v>
       </c>
       <c r="F228">
-        <v>0.1959314750954995</v>
+        <v>0.19593147509549949</v>
       </c>
       <c r="G228">
-        <v>0.03949667829947479</v>
+        <v>3.9496678299474793E-2</v>
       </c>
       <c r="H228">
-        <v>19.59314750954995</v>
+        <v>19.593147509549951</v>
       </c>
       <c r="I228">
         <v>3.949667829947479</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -7117,25 +7134,25 @@
         <v>5</v>
       </c>
       <c r="D229">
-        <v>10.3729005500349</v>
+        <v>10.372900550034901</v>
       </c>
       <c r="E229">
-        <v>11.20108254689777</v>
+        <v>11.201082546897769</v>
       </c>
       <c r="F229">
-        <v>0.8644083791695749</v>
+        <v>0.86440837916957491</v>
       </c>
       <c r="G229">
-        <v>0.1493477672919702</v>
+        <v>0.14934776729197019</v>
       </c>
       <c r="H229">
-        <v>86.44083791695749</v>
+        <v>86.440837916957491</v>
       </c>
       <c r="I229">
         <v>14.93477672919702</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -7146,25 +7163,25 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1.179707821034324</v>
+        <v>1.1797078210343239</v>
       </c>
       <c r="E230">
-        <v>6.570800616130867</v>
+        <v>6.5708006161308674</v>
       </c>
       <c r="F230">
-        <v>0.09830898508619357</v>
+        <v>9.8308985086193568E-2</v>
       </c>
       <c r="G230">
-        <v>0.0876106748817449</v>
+        <v>8.7610674881744899E-2</v>
       </c>
       <c r="H230">
-        <v>9.830898508619356</v>
+        <v>9.8308985086193559</v>
       </c>
       <c r="I230">
-        <v>8.76106748817449</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>8.7610674881744899</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -7175,25 +7192,25 @@
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1.841203509523213</v>
+        <v>1.8412035095232131</v>
       </c>
       <c r="E231">
-        <v>3.875488171393812</v>
+        <v>3.8754881713938119</v>
       </c>
       <c r="F231">
-        <v>0.1534336257936011</v>
+        <v>0.15343362579360109</v>
       </c>
       <c r="G231">
-        <v>0.0516731756185842</v>
+        <v>5.1673175618584199E-2</v>
       </c>
       <c r="H231">
-        <v>15.34336257936011</v>
+        <v>15.343362579360109</v>
       </c>
       <c r="I231">
-        <v>5.16731756185842</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>5.1673175618584199</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -7204,25 +7221,25 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1.319937659570371</v>
+        <v>1.3199376595703709</v>
       </c>
       <c r="E232">
-        <v>4.249282837976054</v>
+        <v>4.2492828379760539</v>
       </c>
       <c r="F232">
         <v>0.1099948049641977</v>
       </c>
       <c r="G232">
-        <v>0.05665710450634731</v>
+        <v>5.6657104506347311E-2</v>
       </c>
       <c r="H232">
-        <v>10.99948049641977</v>
+        <v>10.999480496419769</v>
       </c>
       <c r="I232">
-        <v>5.665710450634731</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>5.6657104506347311</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -7233,16 +7250,16 @@
         <v>1</v>
       </c>
       <c r="D233">
-        <v>1.678112936840826</v>
+        <v>1.6781129368408261</v>
       </c>
       <c r="E233">
-        <v>6.753268783996191</v>
+        <v>6.7532687839961909</v>
       </c>
       <c r="F233">
-        <v>0.1398427447367354</v>
+        <v>0.13984274473673541</v>
       </c>
       <c r="G233">
-        <v>0.09004358378661581</v>
+        <v>9.0043583786615811E-2</v>
       </c>
       <c r="H233">
         <v>13.98427447367354</v>
@@ -7251,7 +7268,7 @@
         <v>9.004358378661582</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -7262,25 +7279,25 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>2.176744955447276</v>
+        <v>2.1767449554472762</v>
       </c>
       <c r="E234">
-        <v>6.909813071506505</v>
+        <v>6.9098130715065054</v>
       </c>
       <c r="F234">
-        <v>0.1813954129539397</v>
+        <v>0.18139541295393971</v>
       </c>
       <c r="G234">
-        <v>0.09213084095342006</v>
+        <v>9.2130840953420057E-2</v>
       </c>
       <c r="H234">
-        <v>18.13954129539397</v>
+        <v>18.139541295393968</v>
       </c>
       <c r="I234">
-        <v>9.213084095342005</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>9.2130840953420048</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -7291,25 +7308,25 @@
         <v>4</v>
       </c>
       <c r="D235">
-        <v>10.8729005500349</v>
+        <v>10.872900550034901</v>
       </c>
       <c r="E235">
         <v>11.20108266626398</v>
       </c>
       <c r="F235">
-        <v>0.9060750458362414</v>
+        <v>0.90607504583624143</v>
       </c>
       <c r="G235">
-        <v>0.1493477688835197</v>
+        <v>0.14934776888351969</v>
       </c>
       <c r="H235">
-        <v>90.60750458362415</v>
+        <v>90.607504583624149</v>
       </c>
       <c r="I235">
-        <v>14.93477688835197</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>14.934776888351969</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -7323,22 +7340,22 @@
         <v>1.818569678176821</v>
       </c>
       <c r="E236">
-        <v>4.405827125486383</v>
+        <v>4.4058271254863826</v>
       </c>
       <c r="F236">
-        <v>0.1515474731814017</v>
+        <v>0.15154747318140169</v>
       </c>
       <c r="G236">
-        <v>0.05874436167315178</v>
+        <v>5.8744361673151779E-2</v>
       </c>
       <c r="H236">
-        <v>15.15474731814017</v>
+        <v>15.154747318140171</v>
       </c>
       <c r="I236">
-        <v>5.874436167315178</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>5.8744361673151779</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -7349,25 +7366,25 @@
         <v>2</v>
       </c>
       <c r="D237">
-        <v>0.6249695360465566</v>
+        <v>0.62496953604655658</v>
       </c>
       <c r="E237">
-        <v>2.411232285182621</v>
+        <v>2.4112322851826211</v>
       </c>
       <c r="F237">
-        <v>0.05208079467054638</v>
+        <v>5.2080794670546382E-2</v>
       </c>
       <c r="G237">
-        <v>0.03214976380243484</v>
+        <v>3.2149763802434839E-2</v>
       </c>
       <c r="H237">
-        <v>5.208079467054638</v>
+        <v>5.2080794670546382</v>
       </c>
       <c r="I237">
-        <v>3.214976380243484</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>3.2149763802434839</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -7381,22 +7398,22 @@
         <v>1.58989738230505</v>
       </c>
       <c r="E238">
-        <v>1.243998688074271</v>
+        <v>1.2439986880742711</v>
       </c>
       <c r="F238">
         <v>0.1324914485254208</v>
       </c>
       <c r="G238">
-        <v>0.01658664917432362</v>
+        <v>1.658664917432362E-2</v>
       </c>
       <c r="H238">
-        <v>13.24914485254208</v>
+        <v>13.249144852542081</v>
       </c>
       <c r="I238">
         <v>1.658664917432362</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -7410,22 +7427,22 @@
         <v>1.58989738230505</v>
       </c>
       <c r="E239">
-        <v>1.243998688074271</v>
+        <v>1.2439986880742711</v>
       </c>
       <c r="F239">
         <v>0.1324914485254208</v>
       </c>
       <c r="G239">
-        <v>0.01658664917432362</v>
+        <v>1.658664917432362E-2</v>
       </c>
       <c r="H239">
-        <v>13.24914485254208</v>
+        <v>13.249144852542081</v>
       </c>
       <c r="I239">
         <v>1.658664917432362</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -7436,25 +7453,25 @@
         <v>1</v>
       </c>
       <c r="D240">
-        <v>0.008862273712285429</v>
+        <v>8.8622737122854289E-3</v>
       </c>
       <c r="E240">
         <v>6.798623109210439</v>
       </c>
       <c r="F240">
-        <v>0.0007385228093571561</v>
+        <v>7.3852280935715608E-4</v>
       </c>
       <c r="G240">
-        <v>0.09064830812280578</v>
+        <v>9.0648308122805776E-2</v>
       </c>
       <c r="H240">
-        <v>0.07385228093571561</v>
+        <v>7.3852280935715608E-2</v>
       </c>
       <c r="I240">
-        <v>9.064830812280578</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>9.0648308122805776</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -7465,25 +7482,25 @@
         <v>1</v>
       </c>
       <c r="D241">
-        <v>0.9041665784226396</v>
+        <v>0.90416657842263959</v>
       </c>
       <c r="E241">
-        <v>4.416802263847345</v>
+        <v>4.4168022638473454</v>
       </c>
       <c r="F241">
-        <v>0.07534721486855323</v>
+        <v>7.5347214868553225E-2</v>
       </c>
       <c r="G241">
-        <v>0.05889069685129789</v>
+        <v>5.8890696851297893E-2</v>
       </c>
       <c r="H241">
-        <v>7.534721486855323</v>
+        <v>7.5347214868553234</v>
       </c>
       <c r="I241">
-        <v>5.889069685129789</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9">
+        <v>5.8890696851297886</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -7494,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="D242">
-        <v>4.652305788510073</v>
+        <v>4.6523057885100734</v>
       </c>
       <c r="E242">
         <v>12.42448292656184</v>
@@ -7503,7 +7520,7 @@
         <v>0.3876921490425061</v>
       </c>
       <c r="G242">
-        <v>0.1656597723541579</v>
+        <v>0.16565977235415791</v>
       </c>
       <c r="H242">
         <v>38.76921490425061</v>
@@ -7512,7 +7529,7 @@
         <v>16.56597723541579</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -7523,25 +7540,25 @@
         <v>4</v>
       </c>
       <c r="D243">
-        <v>3.625879864285806</v>
+        <v>3.6258798642858059</v>
       </c>
       <c r="E243">
-        <v>5.639266927643177</v>
+        <v>5.6392669276431766</v>
       </c>
       <c r="F243">
-        <v>0.3021566553571505</v>
+        <v>0.30215665535715053</v>
       </c>
       <c r="G243">
-        <v>0.07519022570190903</v>
+        <v>7.519022570190903E-2</v>
       </c>
       <c r="H243">
-        <v>30.21566553571505</v>
+        <v>30.215665535715051</v>
       </c>
       <c r="I243">
         <v>7.519022570190903</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -7552,25 +7569,25 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>0.1092538089802906</v>
+        <v>0.10925380898029061</v>
       </c>
       <c r="E244">
         <v>10.73224885954011</v>
       </c>
       <c r="F244">
-        <v>0.009104484081690845</v>
+        <v>9.1044840816908446E-3</v>
       </c>
       <c r="G244">
-        <v>0.1430966514605347</v>
+        <v>0.14309665146053471</v>
       </c>
       <c r="H244">
-        <v>0.9104484081690845</v>
+        <v>0.91044840816908446</v>
       </c>
       <c r="I244">
-        <v>14.30966514605347</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9">
+        <v>14.309665146053471</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -7581,25 +7598,25 @@
         <v>2</v>
       </c>
       <c r="D245">
-        <v>0.9041665784226396</v>
+        <v>0.90416657842263959</v>
       </c>
       <c r="E245">
-        <v>4.416802263847345</v>
+        <v>4.4168022638473454</v>
       </c>
       <c r="F245">
-        <v>0.07534721486855323</v>
+        <v>7.5347214868553225E-2</v>
       </c>
       <c r="G245">
-        <v>0.05889069685129789</v>
+        <v>5.8890696851297893E-2</v>
       </c>
       <c r="H245">
-        <v>7.534721486855323</v>
+        <v>7.5347214868553234</v>
       </c>
       <c r="I245">
-        <v>5.889069685129789</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9">
+        <v>5.8890696851297886</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -7610,25 +7627,25 @@
         <v>2</v>
       </c>
       <c r="D246">
-        <v>1.77075125795823</v>
+        <v>1.7707512579582301</v>
       </c>
       <c r="E246">
-        <v>0.854294089396447</v>
+        <v>0.85429408939644702</v>
       </c>
       <c r="F246">
         <v>0.1475626048298524</v>
       </c>
       <c r="G246">
-        <v>0.01139058785861924</v>
+        <v>1.1390587858619241E-2</v>
       </c>
       <c r="H246">
         <v>14.75626048298524</v>
       </c>
       <c r="I246">
-        <v>1.139058785861924</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9">
+        <v>1.1390587858619241</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -7639,25 +7656,25 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>0.05838938147787864</v>
+        <v>5.8389381477878637E-2</v>
       </c>
       <c r="E247">
         <v>10.0661389326053</v>
       </c>
       <c r="F247">
-        <v>0.00486578178982322</v>
+        <v>4.8657817898232203E-3</v>
       </c>
       <c r="G247">
-        <v>0.1342151857680706</v>
+        <v>0.13421518576807059</v>
       </c>
       <c r="H247">
-        <v>0.486578178982322</v>
+        <v>0.48657817898232197</v>
       </c>
       <c r="I247">
         <v>13.42151857680706</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -7671,22 +7688,22 @@
         <v>0.1017914720894364</v>
       </c>
       <c r="E248">
-        <v>6.777328383593257</v>
+        <v>6.7773283835932574</v>
       </c>
       <c r="F248">
-        <v>0.0084826226741197</v>
+        <v>8.4826226741196997E-3</v>
       </c>
       <c r="G248">
-        <v>0.09036437844791001</v>
+        <v>9.036437844791001E-2</v>
       </c>
       <c r="H248">
-        <v>0.84826226741197</v>
+        <v>0.84826226741196997</v>
       </c>
       <c r="I248">
         <v>9.036437844791001</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -7700,22 +7717,22 @@
         <v>1.045855858047132</v>
       </c>
       <c r="E249">
-        <v>1.514774448079102</v>
+        <v>1.5147744480791021</v>
       </c>
       <c r="F249">
-        <v>0.08715465483726104</v>
+        <v>8.7154654837261036E-2</v>
       </c>
       <c r="G249">
-        <v>0.02019699264105468</v>
+        <v>2.0196992641054679E-2</v>
       </c>
       <c r="H249">
-        <v>8.715465483726103</v>
+        <v>8.7154654837261027</v>
       </c>
       <c r="I249">
-        <v>2.019699264105468</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9">
+        <v>2.0196992641054679</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7726,25 +7743,25 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1.379827645263446</v>
+        <v>1.3798276452634459</v>
       </c>
       <c r="E250">
-        <v>4.684870321034055</v>
+        <v>4.6848703210340554</v>
       </c>
       <c r="F250">
         <v>0.1149856371052871</v>
       </c>
       <c r="G250">
-        <v>0.06246493761378735</v>
+        <v>6.2464937613787352E-2</v>
       </c>
       <c r="H250">
         <v>11.49856371052871</v>
       </c>
       <c r="I250">
-        <v>6.246493761378735</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9">
+        <v>6.2464937613787352</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7755,25 +7772,25 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>0.4704165363383934</v>
+        <v>0.47041653633839342</v>
       </c>
       <c r="E251">
-        <v>8.120499088153657</v>
+        <v>8.1204990881536574</v>
       </c>
       <c r="F251">
-        <v>0.03920137802819945</v>
+        <v>3.9201378028199452E-2</v>
       </c>
       <c r="G251">
         <v>0.1082733211753821</v>
       </c>
       <c r="H251">
-        <v>3.920137802819945</v>
+        <v>3.9201378028199452</v>
       </c>
       <c r="I251">
         <v>10.82733211753821</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7787,22 +7804,22 @@
         <v>1.045855858047132</v>
       </c>
       <c r="E252">
-        <v>1.514774448079102</v>
+        <v>1.5147744480791021</v>
       </c>
       <c r="F252">
-        <v>0.08715465483726104</v>
+        <v>8.7154654837261036E-2</v>
       </c>
       <c r="G252">
-        <v>0.02019699264105468</v>
+        <v>2.0196992641054679E-2</v>
       </c>
       <c r="H252">
-        <v>8.715465483726103</v>
+        <v>8.7154654837261027</v>
       </c>
       <c r="I252">
-        <v>2.019699264105468</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9">
+        <v>2.0196992641054679</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7813,25 +7830,25 @@
         <v>1</v>
       </c>
       <c r="D253">
-        <v>0.700862941937185</v>
+        <v>0.70086294193718501</v>
       </c>
       <c r="E253">
-        <v>4.997341277658592</v>
+        <v>4.9973412776585917</v>
       </c>
       <c r="F253">
-        <v>0.05840524516143208</v>
+        <v>5.8405245161432078E-2</v>
       </c>
       <c r="G253">
-        <v>0.06663121703544794</v>
+        <v>6.6631217035447943E-2</v>
       </c>
       <c r="H253">
-        <v>5.840524516143208</v>
+        <v>5.8405245161432076</v>
       </c>
       <c r="I253">
-        <v>6.663121703544794</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9">
+        <v>6.6631217035447943</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7842,25 +7859,25 @@
         <v>2</v>
       </c>
       <c r="D254">
-        <v>0.7669384900973348</v>
+        <v>0.76693849009733484</v>
       </c>
       <c r="E254">
         <v>3.104689508011226</v>
       </c>
       <c r="F254">
-        <v>0.06391154084144457</v>
+        <v>6.391154084144457E-2</v>
       </c>
       <c r="G254">
-        <v>0.04139586010681628</v>
+        <v>4.1395860106816278E-2</v>
       </c>
       <c r="H254">
         <v>6.391154084144457</v>
       </c>
       <c r="I254">
-        <v>4.139586010681628</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
+        <v>4.1395860106816276</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7871,25 +7888,25 @@
         <v>1</v>
       </c>
       <c r="D255">
-        <v>0.875378106628145</v>
+        <v>0.87537810662814497</v>
       </c>
       <c r="E255">
         <v>1.267062576917162</v>
       </c>
       <c r="F255">
-        <v>0.0729481755523454</v>
+        <v>7.2948175552345396E-2</v>
       </c>
       <c r="G255">
-        <v>0.01689416769222885</v>
+        <v>1.6894167692228849E-2</v>
       </c>
       <c r="H255">
-        <v>7.294817555234539</v>
+        <v>7.2948175552345393</v>
       </c>
       <c r="I255">
         <v>1.689416769222885</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7900,25 +7917,25 @@
         <v>1</v>
       </c>
       <c r="D256">
-        <v>1.669233868649387</v>
+        <v>1.6692338686493871</v>
       </c>
       <c r="E256">
         <v>1.434833103207694</v>
       </c>
       <c r="F256">
-        <v>0.1391028223874489</v>
+        <v>0.13910282238744889</v>
       </c>
       <c r="G256">
-        <v>0.0191311080427693</v>
+        <v>1.9131108042769299E-2</v>
       </c>
       <c r="H256">
-        <v>13.91028223874489</v>
+        <v>13.910282238744889</v>
       </c>
       <c r="I256">
         <v>1.91311080427693</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7932,22 +7949,22 @@
         <v>1.188819885924747</v>
       </c>
       <c r="E257">
-        <v>3.634185780705465</v>
+        <v>3.6341857807054652</v>
       </c>
       <c r="F257">
-        <v>0.09906832382706221</v>
+        <v>9.906832382706221E-2</v>
       </c>
       <c r="G257">
-        <v>0.04845581040940616</v>
+        <v>4.8455810409406157E-2</v>
       </c>
       <c r="H257">
-        <v>9.90683238270622</v>
+        <v>9.9068323827062201</v>
       </c>
       <c r="I257">
-        <v>4.845581040940616</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9">
+        <v>4.8455810409406164</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7958,13 +7975,13 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>0.4369309194369748</v>
+        <v>0.43693091943697482</v>
       </c>
       <c r="E258">
-        <v>8.285184310880403</v>
+        <v>8.2851843108804033</v>
       </c>
       <c r="F258">
-        <v>0.03641090995308122</v>
+        <v>3.6410909953081223E-2</v>
       </c>
       <c r="G258">
         <v>0.110469124145072</v>
@@ -7973,10 +7990,10 @@
         <v>3.641090995308121</v>
       </c>
       <c r="I258">
-        <v>11.0469124145072</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9">
+        <v>11.046912414507201</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7987,25 +8004,25 @@
         <v>1</v>
       </c>
       <c r="D259">
-        <v>0.700862941937185</v>
+        <v>0.70086294193718501</v>
       </c>
       <c r="E259">
-        <v>4.997341277658592</v>
+        <v>4.9973412776585917</v>
       </c>
       <c r="F259">
-        <v>0.05840524516143208</v>
+        <v>5.8405245161432078E-2</v>
       </c>
       <c r="G259">
-        <v>0.06663121703544794</v>
+        <v>6.6631217035447943E-2</v>
       </c>
       <c r="H259">
-        <v>5.840524516143208</v>
+        <v>5.8405245161432076</v>
       </c>
       <c r="I259">
-        <v>6.663121703544794</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9">
+        <v>6.6631217035447943</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8016,13 +8033,13 @@
         <v>1</v>
       </c>
       <c r="D260">
-        <v>0.9248878634245363</v>
+        <v>0.92488786342453633</v>
       </c>
       <c r="E260">
-        <v>8.78660901508848</v>
+        <v>8.7866090150884801</v>
       </c>
       <c r="F260">
-        <v>0.07707398861871134</v>
+        <v>7.7073988618711342E-2</v>
       </c>
       <c r="G260">
         <v>0.1171547868678464</v>
@@ -8031,10 +8048,10 @@
         <v>7.707398861871134</v>
       </c>
       <c r="I260">
-        <v>11.71547868678464</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9">
+        <v>11.715478686784641</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8045,25 +8062,25 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>0.3222866624337923</v>
+        <v>0.32228666243379228</v>
       </c>
       <c r="E261">
-        <v>11.69132784473885</v>
+        <v>11.691327844738851</v>
       </c>
       <c r="F261">
-        <v>0.02685722186948269</v>
+        <v>2.6857221869482691E-2</v>
       </c>
       <c r="G261">
-        <v>0.1558843712631847</v>
+        <v>0.15588437126318469</v>
       </c>
       <c r="H261">
         <v>2.685722186948269</v>
       </c>
       <c r="I261">
-        <v>15.58843712631847</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9">
+        <v>15.588437126318469</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8074,16 +8091,16 @@
         <v>0</v>
       </c>
       <c r="D262">
-        <v>0.1269336048918097</v>
+        <v>0.12693360489180969</v>
       </c>
       <c r="E262">
         <v>9.157285807849469</v>
       </c>
       <c r="F262">
-        <v>0.01057780040765083</v>
+        <v>1.057780040765083E-2</v>
       </c>
       <c r="G262">
-        <v>0.1220971441046596</v>
+        <v>0.12209714410465961</v>
       </c>
       <c r="H262">
         <v>1.057780040765083</v>
@@ -8092,7 +8109,7 @@
         <v>12.20971441046596</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8103,25 +8120,25 @@
         <v>0</v>
       </c>
       <c r="D263">
-        <v>0.07742384809541836</v>
+        <v>7.7423848095418357E-2</v>
       </c>
       <c r="E263">
         <v>3.502319570839362</v>
       </c>
       <c r="F263">
-        <v>0.006451987341284882</v>
+        <v>6.4519873412848816E-3</v>
       </c>
       <c r="G263">
-        <v>0.04669759427785813</v>
+        <v>4.6697594277858127E-2</v>
       </c>
       <c r="H263">
-        <v>0.6451987341284882</v>
+        <v>0.64519873412848816</v>
       </c>
       <c r="I263">
         <v>4.669759427785813</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8132,13 +8149,13 @@
         <v>1</v>
       </c>
       <c r="D264">
-        <v>0.4369309194369748</v>
+        <v>0.43693091943697482</v>
       </c>
       <c r="E264">
-        <v>8.285184310880403</v>
+        <v>8.2851843108804033</v>
       </c>
       <c r="F264">
-        <v>0.03641090995308122</v>
+        <v>3.6410909953081223E-2</v>
       </c>
       <c r="G264">
         <v>0.110469124145072</v>
@@ -8147,10 +8164,10 @@
         <v>3.641090995308121</v>
       </c>
       <c r="I264">
-        <v>11.0469124145072</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9">
+        <v>11.046912414507201</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8161,25 +8178,25 @@
         <v>0</v>
       </c>
       <c r="D265">
-        <v>0.0970913165955416</v>
+        <v>9.7091316595541599E-2</v>
       </c>
       <c r="E265">
         <v>2.762084283736399</v>
       </c>
       <c r="F265">
-        <v>0.00809094304962843</v>
+        <v>8.0909430496284296E-3</v>
       </c>
       <c r="G265">
-        <v>0.03682779044981865</v>
+        <v>3.6827790449818647E-2</v>
       </c>
       <c r="H265">
-        <v>0.809094304962843</v>
+        <v>0.80909430496284296</v>
       </c>
       <c r="I265">
-        <v>3.682779044981865</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9">
+        <v>3.6827790449818649</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8190,25 +8207,25 @@
         <v>0</v>
       </c>
       <c r="D266">
-        <v>1.020942672154353</v>
+        <v>1.0209426721543531</v>
       </c>
       <c r="E266">
         <v>2.762084283736399</v>
       </c>
       <c r="F266">
-        <v>0.08507855601286279</v>
+        <v>8.5078556012862794E-2</v>
       </c>
       <c r="G266">
-        <v>0.03682779044981865</v>
+        <v>3.6827790449818647E-2</v>
       </c>
       <c r="H266">
-        <v>8.507855601286279</v>
+        <v>8.5078556012862787</v>
       </c>
       <c r="I266">
-        <v>3.682779044981865</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9">
+        <v>3.6827790449818649</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8219,25 +8236,25 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>0.2443485158697234</v>
+        <v>0.24434851586972339</v>
       </c>
       <c r="E267">
-        <v>2.615520432295504</v>
+        <v>2.6155204322955039</v>
       </c>
       <c r="F267">
-        <v>0.02036237632247695</v>
+        <v>2.0362376322476949E-2</v>
       </c>
       <c r="G267">
-        <v>0.03487360576394005</v>
+        <v>3.4873605763940052E-2</v>
       </c>
       <c r="H267">
-        <v>2.036237632247695</v>
+        <v>2.0362376322476949</v>
       </c>
       <c r="I267">
-        <v>3.487360576394005</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9">
+        <v>3.4873605763940052</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8248,25 +8265,25 @@
         <v>0</v>
       </c>
       <c r="D268">
-        <v>0.3362010231722534</v>
+        <v>0.33620102317225342</v>
       </c>
       <c r="E268">
         <v>4.985340015832918</v>
       </c>
       <c r="F268">
-        <v>0.02801675193102116</v>
+        <v>2.8016751931021159E-2</v>
       </c>
       <c r="G268">
-        <v>0.06647120021110559</v>
+        <v>6.6471200211105586E-2</v>
       </c>
       <c r="H268">
         <v>2.801675193102116</v>
       </c>
       <c r="I268">
-        <v>6.647120021110559</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9">
+        <v>6.6471200211105588</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8277,25 +8294,25 @@
         <v>1</v>
       </c>
       <c r="D269">
-        <v>0.5094119160018868</v>
+        <v>0.50941191600188684</v>
       </c>
       <c r="E269">
         <v>5.833538458203229</v>
       </c>
       <c r="F269">
-        <v>0.0424509930001572</v>
+        <v>4.24509930001572E-2</v>
       </c>
       <c r="G269">
-        <v>0.07778051277604303</v>
+        <v>7.7780512776043031E-2</v>
       </c>
       <c r="H269">
-        <v>4.24509930001572</v>
+        <v>4.2450993000157196</v>
       </c>
       <c r="I269">
-        <v>7.778051277604304</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9">
+        <v>7.7780512776043036</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8306,25 +8323,25 @@
         <v>0</v>
       </c>
       <c r="D270">
-        <v>0.6966783894338633</v>
+        <v>0.69667838943386329</v>
       </c>
       <c r="E270">
-        <v>5.626001944539112</v>
+        <v>5.6260019445391123</v>
       </c>
       <c r="F270">
-        <v>0.05805653245282194</v>
+        <v>5.8056532452821941E-2</v>
       </c>
       <c r="G270">
-        <v>0.07501335926052149</v>
+        <v>7.5013359260521495E-2</v>
       </c>
       <c r="H270">
-        <v>5.805653245282194</v>
+        <v>5.8056532452821941</v>
       </c>
       <c r="I270">
-        <v>7.50133592605215</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9">
+        <v>7.5013359260521497</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -8335,25 +8352,25 @@
         <v>0</v>
       </c>
       <c r="D271">
-        <v>0.0970913165955416</v>
+        <v>9.7091316595541599E-2</v>
       </c>
       <c r="E271">
         <v>2.762084283736399</v>
       </c>
       <c r="F271">
-        <v>0.00809094304962843</v>
+        <v>8.0909430496284296E-3</v>
       </c>
       <c r="G271">
-        <v>0.03682779044981865</v>
+        <v>3.6827790449818647E-2</v>
       </c>
       <c r="H271">
-        <v>0.809094304962843</v>
+        <v>0.80909430496284296</v>
       </c>
       <c r="I271">
-        <v>3.682779044981865</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9">
+        <v>3.6827790449818649</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -8364,25 +8381,25 @@
         <v>0</v>
       </c>
       <c r="D272">
-        <v>0.07742384809541836</v>
+        <v>7.7423848095418357E-2</v>
       </c>
       <c r="E272">
         <v>3.502319570839362</v>
       </c>
       <c r="F272">
-        <v>0.006451987341284882</v>
+        <v>6.4519873412848816E-3</v>
       </c>
       <c r="G272">
-        <v>0.04669759427785813</v>
+        <v>4.6697594277858127E-2</v>
       </c>
       <c r="H272">
-        <v>0.6451987341284882</v>
+        <v>0.64519873412848816</v>
       </c>
       <c r="I272">
         <v>4.669759427785813</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -8393,16 +8410,16 @@
         <v>0</v>
       </c>
       <c r="D273">
-        <v>0.1269336048918097</v>
+        <v>0.12693360489180969</v>
       </c>
       <c r="E273">
         <v>9.157285807849469</v>
       </c>
       <c r="F273">
-        <v>0.01057780040765083</v>
+        <v>1.057780040765083E-2</v>
       </c>
       <c r="G273">
-        <v>0.1220971441046596</v>
+        <v>0.12209714410465961</v>
       </c>
       <c r="H273">
         <v>1.057780040765083</v>
@@ -8411,7 +8428,7 @@
         <v>12.20971441046596</v>
       </c>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -8422,25 +8439,25 @@
         <v>0</v>
       </c>
       <c r="D274">
-        <v>0.5653807920829799</v>
+        <v>0.56538079208297987</v>
       </c>
       <c r="E274">
         <v>2.139164073886231</v>
       </c>
       <c r="F274">
-        <v>0.04711506600691501</v>
+        <v>4.7115066006915007E-2</v>
       </c>
       <c r="G274">
-        <v>0.02852218765181641</v>
+        <v>2.8522187651816411E-2</v>
       </c>
       <c r="H274">
         <v>4.711506600691501</v>
       </c>
       <c r="I274">
-        <v>2.852218765181641</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9">
+        <v>2.8522187651816409</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8451,13 +8468,13 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>0.4369309194369748</v>
+        <v>0.43693091943697482</v>
       </c>
       <c r="E275">
-        <v>8.285184310880403</v>
+        <v>8.2851843108804033</v>
       </c>
       <c r="F275">
-        <v>0.03641090995308122</v>
+        <v>3.6410909953081223E-2</v>
       </c>
       <c r="G275">
         <v>0.110469124145072</v>
@@ -8466,10 +8483,10 @@
         <v>3.641090995308121</v>
       </c>
       <c r="I275">
-        <v>11.0469124145072</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9">
+        <v>11.046912414507201</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8480,25 +8497,25 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>0.2443485158697234</v>
+        <v>0.24434851586972339</v>
       </c>
       <c r="E276">
         <v>7.875956580036096</v>
       </c>
       <c r="F276">
-        <v>0.02036237632247695</v>
+        <v>2.0362376322476949E-2</v>
       </c>
       <c r="G276">
         <v>0.1050127544004813</v>
       </c>
       <c r="H276">
-        <v>2.036237632247695</v>
+        <v>2.0362376322476949</v>
       </c>
       <c r="I276">
-        <v>10.50127544004813</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9">
+        <v>10.501275440048129</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8509,13 +8526,13 @@
         <v>1</v>
       </c>
       <c r="D277">
-        <v>0.4369309194369748</v>
+        <v>0.43693091943697482</v>
       </c>
       <c r="E277">
-        <v>8.285184310880403</v>
+        <v>8.2851843108804033</v>
       </c>
       <c r="F277">
-        <v>0.03641090995308122</v>
+        <v>3.6410909953081223E-2</v>
       </c>
       <c r="G277">
         <v>0.110469124145072</v>
@@ -8524,10 +8541,10 @@
         <v>3.641090995308121</v>
       </c>
       <c r="I277">
-        <v>11.0469124145072</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9">
+        <v>11.046912414507201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8538,25 +8555,25 @@
         <v>1</v>
       </c>
       <c r="D278">
-        <v>0.02145497201432445</v>
+        <v>2.1454972014324451E-2</v>
       </c>
       <c r="E278">
-        <v>7.196693955156356</v>
+        <v>7.1966939551563556</v>
       </c>
       <c r="F278">
-        <v>0.001787914334527019</v>
+        <v>1.787914334527019E-3</v>
       </c>
       <c r="G278">
-        <v>0.0959559194020847</v>
+        <v>9.5955919402084699E-2</v>
       </c>
       <c r="H278">
         <v>0.1787914334527019</v>
       </c>
       <c r="I278">
-        <v>9.59559194020847</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9">
+        <v>9.5955919402084699</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8567,13 +8584,13 @@
         <v>1</v>
       </c>
       <c r="D279">
-        <v>0.9248878634245363</v>
+        <v>0.92488786342453633</v>
       </c>
       <c r="E279">
-        <v>8.78660901508848</v>
+        <v>8.7866090150884801</v>
       </c>
       <c r="F279">
-        <v>0.07707398861871134</v>
+        <v>7.7073988618711342E-2</v>
       </c>
       <c r="G279">
         <v>0.1171547868678464</v>
@@ -8582,10 +8599,10 @@
         <v>7.707398861871134</v>
       </c>
       <c r="I279">
-        <v>11.71547868678464</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9">
+        <v>11.715478686784641</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -8596,13 +8613,13 @@
         <v>1</v>
       </c>
       <c r="D280">
-        <v>0.9248878634245363</v>
+        <v>0.92488786342453633</v>
       </c>
       <c r="E280">
-        <v>8.78660901508848</v>
+        <v>8.7866090150884801</v>
       </c>
       <c r="F280">
-        <v>0.07707398861871134</v>
+        <v>7.7073988618711342E-2</v>
       </c>
       <c r="G280">
         <v>0.1171547868678464</v>
@@ -8611,10 +8628,10 @@
         <v>7.707398861871134</v>
       </c>
       <c r="I280">
-        <v>11.71547868678464</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9">
+        <v>11.715478686784641</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8625,25 +8642,25 @@
         <v>0</v>
       </c>
       <c r="D281">
-        <v>0.6269336048918097</v>
+        <v>0.62693360489180971</v>
       </c>
       <c r="E281">
         <v>9.157285807849469</v>
       </c>
       <c r="F281">
-        <v>0.05224446707431751</v>
+        <v>5.2244467074317513E-2</v>
       </c>
       <c r="G281">
-        <v>0.1220971441046596</v>
+        <v>0.12209714410465961</v>
       </c>
       <c r="H281">
-        <v>5.224446707431751</v>
+        <v>5.2244467074317509</v>
       </c>
       <c r="I281">
         <v>12.20971441046596</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8654,25 +8671,25 @@
         <v>0</v>
       </c>
       <c r="D282">
-        <v>1.004095985866612</v>
+        <v>1.0040959858666121</v>
       </c>
       <c r="E282">
-        <v>5.274702798636795</v>
+        <v>5.2747027986367954</v>
       </c>
       <c r="F282">
-        <v>0.0836746654888843</v>
+        <v>8.3674665488884303E-2</v>
       </c>
       <c r="G282">
-        <v>0.0703293706484906</v>
+        <v>7.0329370648490597E-2</v>
       </c>
       <c r="H282">
-        <v>8.36746654888843</v>
+        <v>8.3674665488884301</v>
       </c>
       <c r="I282">
-        <v>7.03293706484906</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9">
+        <v>7.0329370648490599</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -8683,16 +8700,16 @@
         <v>0</v>
       </c>
       <c r="D283">
-        <v>0.1269336048918097</v>
+        <v>0.12693360489180969</v>
       </c>
       <c r="E283">
         <v>9.157285807849469</v>
       </c>
       <c r="F283">
-        <v>0.01057780040765083</v>
+        <v>1.057780040765083E-2</v>
       </c>
       <c r="G283">
-        <v>0.1220971441046596</v>
+        <v>0.12209714410465961</v>
       </c>
       <c r="H283">
         <v>1.057780040765083</v>
@@ -8701,7 +8718,7 @@
         <v>12.20971441046596</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -8712,25 +8729,25 @@
         <v>1</v>
       </c>
       <c r="D284">
-        <v>0.875378106628145</v>
+        <v>0.87537810662814497</v>
       </c>
       <c r="E284">
         <v>1.267062576917162</v>
       </c>
       <c r="F284">
-        <v>0.0729481755523454</v>
+        <v>7.2948175552345396E-2</v>
       </c>
       <c r="G284">
-        <v>0.01689416769222885</v>
+        <v>1.6894167692228849E-2</v>
       </c>
       <c r="H284">
-        <v>7.294817555234539</v>
+        <v>7.2948175552345393</v>
       </c>
       <c r="I284">
         <v>1.689416769222885</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -8741,25 +8758,25 @@
         <v>0</v>
       </c>
       <c r="D285">
-        <v>0.07742384809541836</v>
+        <v>7.7423848095418357E-2</v>
       </c>
       <c r="E285">
         <v>3.502319570839362</v>
       </c>
       <c r="F285">
-        <v>0.006451987341284882</v>
+        <v>6.4519873412848816E-3</v>
       </c>
       <c r="G285">
-        <v>0.04669759427785813</v>
+        <v>4.6697594277858127E-2</v>
       </c>
       <c r="H285">
-        <v>0.6451987341284882</v>
+        <v>0.64519873412848816</v>
       </c>
       <c r="I285">
         <v>4.669759427785813</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -8770,13 +8787,13 @@
         <v>1</v>
       </c>
       <c r="D286">
-        <v>0.4369309194369748</v>
+        <v>0.43693091943697482</v>
       </c>
       <c r="E286">
-        <v>8.285184310880403</v>
+        <v>8.2851843108804033</v>
       </c>
       <c r="F286">
-        <v>0.03641090995308122</v>
+        <v>3.6410909953081223E-2</v>
       </c>
       <c r="G286">
         <v>0.110469124145072</v>
@@ -8785,10 +8802,10 @@
         <v>3.641090995308121</v>
       </c>
       <c r="I286">
-        <v>11.0469124145072</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9">
+        <v>11.046912414507201</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -8799,25 +8816,25 @@
         <v>1</v>
       </c>
       <c r="D287">
-        <v>0.875378106628145</v>
+        <v>0.87537810662814497</v>
       </c>
       <c r="E287">
         <v>1.267062576917162</v>
       </c>
       <c r="F287">
-        <v>0.0729481755523454</v>
+        <v>7.2948175552345396E-2</v>
       </c>
       <c r="G287">
-        <v>0.01689416769222885</v>
+        <v>1.6894167692228849E-2</v>
       </c>
       <c r="H287">
-        <v>7.294817555234539</v>
+        <v>7.2948175552345393</v>
       </c>
       <c r="I287">
         <v>1.689416769222885</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -8828,25 +8845,25 @@
         <v>0</v>
       </c>
       <c r="D288">
-        <v>0.5653807920829799</v>
+        <v>0.56538079208297987</v>
       </c>
       <c r="E288">
         <v>2.139164073886231</v>
       </c>
       <c r="F288">
-        <v>0.04711506600691501</v>
+        <v>4.7115066006915007E-2</v>
       </c>
       <c r="G288">
-        <v>0.02852218765181641</v>
+        <v>2.8522187651816411E-2</v>
       </c>
       <c r="H288">
         <v>4.711506600691501</v>
       </c>
       <c r="I288">
-        <v>2.852218765181641</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9">
+        <v>2.8522187651816409</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -8857,25 +8874,25 @@
         <v>0</v>
       </c>
       <c r="D289">
-        <v>0.04758155979914935</v>
+        <v>4.7581559799149353E-2</v>
       </c>
       <c r="E289">
         <v>2.892881953273708</v>
       </c>
       <c r="F289">
-        <v>0.003965129983262428</v>
+        <v>3.9651299832624276E-3</v>
       </c>
       <c r="G289">
-        <v>0.03857175937698276</v>
+        <v>3.8571759376982762E-2</v>
       </c>
       <c r="H289">
-        <v>0.3965129983262428</v>
+        <v>0.39651299832624282</v>
       </c>
       <c r="I289">
-        <v>3.857175937698276</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9">
+        <v>3.8571759376982762</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -8886,16 +8903,16 @@
         <v>0</v>
       </c>
       <c r="D290">
-        <v>0.1269336048918097</v>
+        <v>0.12693360489180969</v>
       </c>
       <c r="E290">
         <v>9.157285807849469</v>
       </c>
       <c r="F290">
-        <v>0.01057780040765083</v>
+        <v>1.057780040765083E-2</v>
       </c>
       <c r="G290">
-        <v>0.1220971441046596</v>
+        <v>0.12209714410465961</v>
       </c>
       <c r="H290">
         <v>1.057780040765083</v>
@@ -8904,7 +8921,7 @@
         <v>12.20971441046596</v>
       </c>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -8915,25 +8932,25 @@
         <v>0</v>
       </c>
       <c r="D291">
-        <v>0.6269336048918097</v>
+        <v>0.62693360489180971</v>
       </c>
       <c r="E291">
         <v>9.157285807849469</v>
       </c>
       <c r="F291">
-        <v>0.05224446707431751</v>
+        <v>5.2244467074317513E-2</v>
       </c>
       <c r="G291">
-        <v>0.1220971441046596</v>
+        <v>0.12209714410465961</v>
       </c>
       <c r="H291">
-        <v>5.224446707431751</v>
+        <v>5.2244467074317509</v>
       </c>
       <c r="I291">
         <v>12.20971441046596</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -8944,13 +8961,13 @@
         <v>1</v>
       </c>
       <c r="D292">
-        <v>0.4369309194369748</v>
+        <v>0.43693091943697482</v>
       </c>
       <c r="E292">
-        <v>8.285184310880403</v>
+        <v>8.2851843108804033</v>
       </c>
       <c r="F292">
-        <v>0.03641090995308122</v>
+        <v>3.6410909953081223E-2</v>
       </c>
       <c r="G292">
         <v>0.110469124145072</v>
@@ -8959,10 +8976,10 @@
         <v>3.641090995308121</v>
       </c>
       <c r="I292">
-        <v>11.0469124145072</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9">
+        <v>11.046912414507201</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -8973,25 +8990,25 @@
         <v>0</v>
       </c>
       <c r="D293">
-        <v>0.6073475876164505</v>
+        <v>0.60734758761645047</v>
       </c>
       <c r="E293">
         <v>6.957933130351698</v>
       </c>
       <c r="F293">
-        <v>0.05061229896803754</v>
+        <v>5.0612298968037539E-2</v>
       </c>
       <c r="G293">
-        <v>0.09277244173802263</v>
+        <v>9.2772441738022626E-2</v>
       </c>
       <c r="H293">
-        <v>5.061229896803754</v>
+        <v>5.0612298968037539</v>
       </c>
       <c r="I293">
-        <v>9.277244173802263</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9">
+        <v>9.2772441738022628</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9002,25 +9019,25 @@
         <v>0</v>
       </c>
       <c r="D294">
-        <v>0.4737912424677395</v>
+        <v>0.47379124246773952</v>
       </c>
       <c r="E294">
         <v>6.957933130351698</v>
       </c>
       <c r="F294">
-        <v>0.03948260353897826</v>
+        <v>3.9482603538978263E-2</v>
       </c>
       <c r="G294">
-        <v>0.09277244173802263</v>
+        <v>9.2772441738022626E-2</v>
       </c>
       <c r="H294">
         <v>3.948260353897826</v>
       </c>
       <c r="I294">
-        <v>9.277244173802263</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9">
+        <v>9.2772441738022628</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9034,22 +9051,22 @@
         <v>1.363335050615706</v>
       </c>
       <c r="E295">
-        <v>2.630218073870289</v>
+        <v>2.6302180738702892</v>
       </c>
       <c r="F295">
-        <v>0.1136112542179755</v>
+        <v>0.11361125421797549</v>
       </c>
       <c r="G295">
-        <v>0.03506957431827051</v>
+        <v>3.5069574318270513E-2</v>
       </c>
       <c r="H295">
-        <v>11.36112542179755</v>
+        <v>11.361125421797549</v>
       </c>
       <c r="I295">
-        <v>3.506957431827051</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9">
+        <v>3.5069574318270509</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -9060,25 +9077,25 @@
         <v>1</v>
       </c>
       <c r="D296">
-        <v>0.875378106628145</v>
+        <v>0.87537810662814497</v>
       </c>
       <c r="E296">
         <v>1.267062576917162</v>
       </c>
       <c r="F296">
-        <v>0.0729481755523454</v>
+        <v>7.2948175552345396E-2</v>
       </c>
       <c r="G296">
-        <v>0.01689416769222885</v>
+        <v>1.6894167692228849E-2</v>
       </c>
       <c r="H296">
-        <v>7.294817555234539</v>
+        <v>7.2948175552345393</v>
       </c>
       <c r="I296">
         <v>1.689416769222885</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9089,25 +9106,25 @@
         <v>0</v>
       </c>
       <c r="D297">
-        <v>0.6269336048918097</v>
+        <v>0.62693360489180971</v>
       </c>
       <c r="E297">
         <v>9.157285807849469</v>
       </c>
       <c r="F297">
-        <v>0.05224446707431751</v>
+        <v>5.2244467074317513E-2</v>
       </c>
       <c r="G297">
-        <v>0.1220971441046596</v>
+        <v>0.12209714410465961</v>
       </c>
       <c r="H297">
-        <v>5.224446707431751</v>
+        <v>5.2244467074317509</v>
       </c>
       <c r="I297">
         <v>12.20971441046596</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -9118,25 +9135,25 @@
         <v>0</v>
       </c>
       <c r="D298">
-        <v>0.4524184402008506</v>
+        <v>0.45241844020085059</v>
       </c>
       <c r="E298">
         <v>2.892881953273708</v>
       </c>
       <c r="F298">
-        <v>0.03770153668340426</v>
+        <v>3.7701536683404258E-2</v>
       </c>
       <c r="G298">
-        <v>0.03857175937698276</v>
+        <v>3.8571759376982762E-2</v>
       </c>
       <c r="H298">
-        <v>3.770153668340426</v>
+        <v>3.7701536683404262</v>
       </c>
       <c r="I298">
-        <v>3.857175937698276</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9">
+        <v>3.8571759376982762</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -9147,25 +9164,25 @@
         <v>1</v>
       </c>
       <c r="D299">
-        <v>0.2443485158697234</v>
+        <v>0.24434851586972339</v>
       </c>
       <c r="E299">
-        <v>2.615520432295504</v>
+        <v>2.6155204322955039</v>
       </c>
       <c r="F299">
-        <v>0.02036237632247695</v>
+        <v>2.0362376322476949E-2</v>
       </c>
       <c r="G299">
-        <v>0.03487360576394005</v>
+        <v>3.4873605763940052E-2</v>
       </c>
       <c r="H299">
-        <v>2.036237632247695</v>
+        <v>2.0362376322476949</v>
       </c>
       <c r="I299">
-        <v>3.487360576394005</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9">
+        <v>3.4873605763940052</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -9176,25 +9193,25 @@
         <v>0</v>
       </c>
       <c r="D300">
-        <v>0.2163504627010608</v>
+        <v>0.21635046270106079</v>
       </c>
       <c r="E300">
-        <v>10.38964363526529</v>
+        <v>10.389643635265291</v>
       </c>
       <c r="F300">
-        <v>0.01802920522508844</v>
+        <v>1.802920522508844E-2</v>
       </c>
       <c r="G300">
-        <v>0.1385285818035372</v>
+        <v>0.13852858180353719</v>
       </c>
       <c r="H300">
         <v>1.802920522508844</v>
       </c>
       <c r="I300">
-        <v>13.85285818035372</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9">
+        <v>13.852858180353721</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9205,16 +9222,16 @@
         <v>1</v>
       </c>
       <c r="D301">
-        <v>1.212719442581926</v>
+        <v>1.2127194425819261</v>
       </c>
       <c r="E301">
-        <v>0.9469877421553932</v>
+        <v>0.94698774215539316</v>
       </c>
       <c r="F301">
         <v>0.1010599535484938</v>
       </c>
       <c r="G301">
-        <v>0.01262650322873859</v>
+        <v>1.262650322873859E-2</v>
       </c>
       <c r="H301">
         <v>10.10599535484938</v>
@@ -9223,7 +9240,7 @@
         <v>1.262650322873859</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -9237,22 +9254,22 @@
         <v>1.66591381655722</v>
       </c>
       <c r="E302">
-        <v>8.53289618204235</v>
+        <v>8.5328961820423501</v>
       </c>
       <c r="F302">
-        <v>0.1388261513797683</v>
+        <v>0.13882615137976831</v>
       </c>
       <c r="G302">
         <v>0.113771949093898</v>
       </c>
       <c r="H302">
-        <v>13.88261513797683</v>
+        <v>13.882615137976829</v>
       </c>
       <c r="I302">
         <v>11.3771949093898</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -9263,25 +9280,25 @@
         <v>1</v>
       </c>
       <c r="D303">
-        <v>6.994594279106331</v>
+        <v>6.9945942791063311</v>
       </c>
       <c r="E303">
-        <v>5.386610459633541</v>
+        <v>5.3866104596335411</v>
       </c>
       <c r="F303">
         <v>0.5828828565921943</v>
       </c>
       <c r="G303">
-        <v>0.07182147279511387</v>
+        <v>7.1821472795113875E-2</v>
       </c>
       <c r="H303">
-        <v>58.28828565921943</v>
+        <v>58.288285659219433</v>
       </c>
       <c r="I303">
-        <v>7.182147279511388</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9">
+        <v>7.1821472795113879</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9292,25 +9309,25 @@
         <v>1</v>
       </c>
       <c r="D304">
-        <v>6.923586267383656</v>
+        <v>6.9235862673836559</v>
       </c>
       <c r="E304">
-        <v>9.316531083464458</v>
+        <v>9.3165310834644579</v>
       </c>
       <c r="F304">
-        <v>0.5769655222819713</v>
+        <v>0.57696552228197129</v>
       </c>
       <c r="G304">
-        <v>0.1242204144461928</v>
+        <v>0.12422041444619281</v>
       </c>
       <c r="H304">
-        <v>57.69655222819713</v>
+        <v>57.696552228197127</v>
       </c>
       <c r="I304">
         <v>12.42204144461928</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9321,7 +9338,7 @@
         <v>4</v>
       </c>
       <c r="D305">
-        <v>3.983226711981786</v>
+        <v>3.9832267119817861</v>
       </c>
       <c r="E305">
         <v>3.855394967775482</v>
@@ -9330,13 +9347,13 @@
         <v>0.3319355593318154</v>
       </c>
       <c r="G305">
-        <v>0.05140526623700636</v>
+        <v>5.1405266237006357E-2</v>
       </c>
       <c r="H305">
-        <v>33.19355593318154</v>
+        <v>33.193555933181543</v>
       </c>
       <c r="I305">
-        <v>5.140526623700636</v>
+        <v>5.1405266237006364</v>
       </c>
     </row>
   </sheetData>
